--- a/exel files/deseq2/genes_of interest1.xlsx
+++ b/exel files/deseq2/genes_of interest1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive - University of Haifa\Documents\HAIFA\research\data analyzing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F751D1-C254-4CFA-A92B-A25044CA96D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813F884A-A9B8-47CF-BF50-966EF71144C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3DF311F0-ECAC-4FEC-A6DE-2B04A427C2EE}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="גיליון2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -114,7 +113,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -123,7 +122,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 44interaction - 
@@ -139,7 +138,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -148,7 +147,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 44interaction - 
@@ -188,7 +187,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -197,7 +196,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 44interaction - 
@@ -213,7 +212,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -222,7 +221,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 44interaction - 
@@ -238,7 +237,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -247,7 +246,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 44interaction - 
@@ -263,6 +262,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -271,6 +271,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This ABC transporter permease is could be involved in importing surfactin breakdown products, particularly the sugar-like or peptide-like fragments. Its massive upregulation supports its central role in this response.</t>
@@ -285,7 +286,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -294,7 +295,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 44interaction - 
@@ -1845,6 +1846,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -1853,6 +1855,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 stay down</t>
@@ -1867,6 +1870,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -1875,6 +1879,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 stay down</t>
@@ -1889,6 +1894,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -1897,6 +1903,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 stay down</t>
@@ -1911,6 +1918,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -1919,6 +1927,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 stay down</t>
@@ -1933,6 +1942,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -1941,6 +1951,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 stay down</t>
@@ -1955,6 +1966,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -1963,6 +1975,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 stay down</t>
@@ -1977,6 +1990,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -1985,6 +1999,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 stay down</t>
@@ -1999,6 +2014,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2007,6 +2023,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 stay down</t>
@@ -2021,6 +2038,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2029,6 +2047,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 recovering</t>
@@ -2067,6 +2086,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2075,6 +2095,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 stay down</t>
@@ -2089,6 +2110,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2097,6 +2119,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 stay down</t>
@@ -2111,6 +2134,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2119,6 +2143,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 stay down</t>
@@ -2205,6 +2230,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2213,6 +2239,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 stay down</t>
@@ -2227,6 +2254,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2235,6 +2263,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 recovering</t>
@@ -2249,6 +2278,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2257,6 +2287,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 recovering</t>
@@ -2271,6 +2302,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2279,6 +2311,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 recovering</t>
@@ -2293,6 +2326,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2301,6 +2335,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 recovering</t>
@@ -2315,6 +2350,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2323,6 +2359,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 recovering</t>
@@ -2337,6 +2374,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2345,6 +2383,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 recovering</t>
@@ -2359,6 +2398,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2367,6 +2407,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 stay down</t>
@@ -2381,6 +2422,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2389,6 +2431,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 recovering</t>
@@ -2403,6 +2446,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2411,6 +2455,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 recovering</t>
@@ -2425,6 +2470,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2433,6 +2479,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 recovering</t>
@@ -2447,6 +2494,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2455,6 +2503,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 recovering</t>
@@ -2469,6 +2518,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2477,6 +2527,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 recovering</t>
@@ -2491,6 +2542,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2499,6 +2551,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 stay down</t>
@@ -2513,6 +2566,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2521,6 +2575,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 stay down</t>
@@ -2535,6 +2590,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2543,6 +2599,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 stay down</t>
@@ -2557,6 +2614,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2565,6 +2623,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 stay up</t>
@@ -2579,6 +2638,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2587,6 +2647,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 stay up</t>
@@ -2601,6 +2662,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2609,6 +2671,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 stay up</t>
@@ -2623,6 +2686,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2631,6 +2695,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 The gene expression profile indicates a clear bacterial stress response primarily characterized by nutrient limitation and metabolic shift, with upregulation of genes such as trehalose utilization protein, carbon starvation protein CstA, and xylose isomerase, reflecting adaptation to limited carbon sources. Additionally, there is evidence of cell envelope and membrane stress, shown by the downregulation of capsular polysaccharide biosynthesis proteins (e.g., CapD, Wzm) and glycosyltransferases, alongside upregulation of efflux system proteins and OmpA/MotB domain-containing proteins, indicating efforts to maintain membrane integrity and expel toxic compounds. Signs of oxidative and redox stress are present, with downregulation of catalase but upregulation of cytochrome d ubiquinol oxidase subunits and FAD-dependent oxidoreductases, suggesting a shift in redox balance. Moreover, upregulated prophage and cell lysis genes such as phage proteins, toxin secretion/holin, and N-acetylmuramoyl-L-alanine amidase indicate potential prophage induction or programmed cell lysis. Notably, classic DNA repair and SOS response regulators are absent or downregulated, supporting that the dominant stress is membrane-related, consistent with surfactin’s known membrane-disruptive properties.</t>
@@ -2645,6 +2710,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2653,6 +2719,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 there are other stress factors which are downregulated (ECF subfamily RNA polymerase sigma-24 subunit)</t>
@@ -2667,6 +2734,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2675,6 +2743,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 membrane stress</t>
@@ -2714,6 +2783,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -2722,6 +2792,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 there are also efflux system proteins wich are downregulated - keep in mind</t>
@@ -3010,6 +3081,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -3018,6 +3090,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 stay down</t>
@@ -3032,6 +3105,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -3040,6 +3114,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 stay down</t>
@@ -3054,6 +3129,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -3062,6 +3138,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 stay down</t>
@@ -3076,6 +3153,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -3084,6 +3162,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 stay down</t>
@@ -3098,6 +3177,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -3106,6 +3186,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 stay down</t>
@@ -3120,6 +3201,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -3128,6 +3210,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 recovering</t>
@@ -3142,6 +3225,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -3150,6 +3234,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 recovering</t>
@@ -3164,6 +3249,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -3172,6 +3258,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 recovering</t>
@@ -3186,6 +3273,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -3194,6 +3282,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 recovering</t>
@@ -3208,6 +3297,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -3216,6 +3306,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 recovering</t>
@@ -3230,6 +3321,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -3238,6 +3330,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 recovering</t>
@@ -3372,6 +3465,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -3380,6 +3474,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 there are other stress factors which are downregulated (ECF subfamily RNA polymerase sigma-24 subunit)</t>
@@ -3394,6 +3489,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>USER:</t>
         </r>
@@ -3402,6 +3498,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 membrane stress</t>
@@ -3430,6 +3527,102 @@
           <t xml:space="preserve">
 44interaction - 
 meaning the gene stays up</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O46" authorId="0" shapeId="0" xr:uid="{9CDE7DFD-CA18-4AC9-91DC-DED98E85EDFF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+**למה אני כותב שאני "די בטוח"? כיוון שלא הצלחתי למצא בNCBI או ב-uniprot את רצף הנוקלאוטידים לכן השתמשתי בכלי שמתרגם חומצות אמינו לנוקלאוטידים (https://www.genecorner.ugent.be/rev_trans.html) והרצתי בBLAST כנגד הגנום של Pd ב- More dissimilar sequences (discontiguous megablast), וקיבלתי את הרצף רק רצף אחד שמתאים. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O47" authorId="0" shapeId="0" xr:uid="{2B9CC575-E7CC-4A2E-93CE-EDF46EC22BAC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+**למה אני כותב שאני "די בטוח"? כיוון שלא הצלחתי למצא בNCBI או ב-uniprot את רצף הנוקלאוטידים לכן השתמשתי בכלי שמתרגם חומצות אמינו לנוקלאוטידים (https://www.genecorner.ugent.be/rev_trans.html) והרצתי בBLAST כנגד הגנום של Pd ב- More dissimilar sequences (discontiguous megablast), וקיבלתי את הרצף רק רצף אחד שמתאים. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O48" authorId="0" shapeId="0" xr:uid="{96916DE8-EFA7-4A66-B53D-E6FFADBA0AF8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+**למה אני כותב שאני "די בטוח"? כיוון שלא הצלחתי למצא בNCBI או ב-uniprot את רצף הנוקלאוטידים לכן השתמשתי בכלי שמתרגם חומצות אמינו לנוקלאוטידים (https://www.genecorner.ugent.be/rev_trans.html) והרצתי בBLAST כנגד הגנום של Pd ב- More dissimilar sequences (discontiguous megablast), וקיבלתי את הרצף רק רצף אחד שמתאים. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O49" authorId="0" shapeId="0" xr:uid="{424B72C2-D53A-4ED3-9BFC-08480C4F2835}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+**למה אני כותב שאני "די בטוח"? כיוון שלא הצלחתי למצא בNCBI או ב-uniprot את רצף הנוקלאוטידים לכן השתמשתי בכלי שמתרגם חומצות אמינו לנוקלאוטידים (https://www.genecorner.ugent.be/rev_trans.html) והרצתי בBLAST כנגד הגנום של Pd ב- More dissimilar sequences (discontiguous megablast), וקיבלתי את הרצף רק רצף אחד שמתאים. </t>
         </r>
       </text>
     </comment>
@@ -3438,7 +3631,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="708">
   <si>
     <t>Gene</t>
   </si>
@@ -7574,12 +7767,298 @@
   <si>
     <t>This family of proteins includes components that are involved in the structural organization and integrity of the cell envelope. They typically exhibit a tripartite organization with a C-terminal outer membrane beta-barrel domain, a central trimeric coiled coil, and an N-terminal domain that can interact with the peptidoglycan layer. Some members function as anchoring proteins that bind cellulosomes to the cell surface, while others form a paracrystalline mono-layered assembly known as the S-layer, which coats the surface of bacteria. The S-layer proteins play roles in protecting the cell, potentially acting as nonselective channels that facilitate the exchange of substances with the environment. Additionally, some proteins within this family may be involved in linking the outer membrane to the inner membrane or the peptidoglycan layer, contributing to the cell's structural stability.</t>
   </si>
+  <si>
+    <t>normalizing genes for qpcr</t>
+  </si>
+  <si>
+    <t>PDENDC454_09875</t>
+  </si>
+  <si>
+    <t>rpsL</t>
+  </si>
+  <si>
+    <t>PDENDC454_09860</t>
+  </si>
+  <si>
+    <t>rpoB</t>
+  </si>
+  <si>
+    <t>PDENDC454_05621</t>
+  </si>
+  <si>
+    <t>ftsZ</t>
+  </si>
+  <si>
+    <t>F primer</t>
+  </si>
+  <si>
+    <t>R primer</t>
+  </si>
+  <si>
+    <t>fasta</t>
+  </si>
+  <si>
+    <t>AAGGAAATGAACGTCGAACTTCCGCTGCGCGATGTGTTCCGCTATATGACGGTAGAGTCGATGGCCGGGGCTATTGCCAGCTTGGAAGAAACGCAGCACAGCTCGATTCCGAAAGCGGAAAAGAAAGCGTACTATCCGGTTTCCTCCGCGCAAAAAAGGCTGTACGTCCTGCACCAGCTGGATGACTCGGAGCTGAATTACAACCTCCCAAGCGCCTTGCAATTGGAAGGGGCTTTGAATGAGGCTAAAGTGGAAAAGGCGCTGACTACTTTAGTGGCTCGTCACGATATGCTGCGCACCGGTTTTGAAATCGTGGATGGGGAGCCGGTTCAGCGTATTCATCCGCTCGCAGCTTTTAAGCTCCAGAAGCTTCAAGCAAGCGAAGATCAGGTTGCGGCCATTCTTGAAGGCTTCATTCAGCCTTTTGACTTGACCCAGCCGCCTTTGCTGCGCGCCCTGCTGATCGAACTGGAGAAAGAGAAATTCCTGCTCGCGCTGGATATTCATCATATTGGTTCGGACGGCCTTTCCATGGACGTGCTGCTGCGCGAATTCGTGCGGCTTTACAATGGAGAAGAATTGCCGGAGCTGCGGATTCAATACAAGGATTACGCCGTTTGGCAGCAATCCGAGGAGCAGCGCCAGCGCATCCAACGGCAGGAGGAATACTGGCGCGGGGTATTCAGCTCCGAGCTTCCGGTTCTTGAGCTGCCTCTCGACTTCTCCCGCCCGGCCGTCCAGCAGTTTGACGGTCAGACGCTCACGTTTACGCTGGATGCGGAGAAAAGCGAAGCTCTCAAACGGCTTGCCGGCGATTCGGGGGCGACGCTGTACATGCTTTTGCTGGCTGCGTACTCCGTATTGCTTCATAAATACGCGGGACAGGAAGATATAGTGGTCGGCACTCCGATTGCCGCCCGTTCTCACGCCGACCTGCAGCCGATTATCGGCATGTTCGTCAATACACTGGCCCTTCGCTTGAGTCCGGCGGCGGAGCGGACGTTCCTGGATTACTTGCAGGAAGTGAAGGAAACGACGCTTGGAGCCTATGAGCACCAGGACTATCCGTTCGAGGAGCTGGTGGAAGCTCTTCAGGTGAGACGGGATTTAAGCCGGAATCCGCTGTTTGACACCATGTTTTCTTTGCAAAAGCATGAAAGCTTGGATTTAACCCTGGAAGGCTTGCAATGGTCGCTGTTCGACATCGAGGAAAAGACGGCAAAGTTTGATCTCAGCTTAGATATCGTGGAAGCCGATAACGAGCTGGTTTGCAAGATCGAGTACGCTACCTCGTTGTTTAGACAGGAAACGATGGTACGGCTGGCGGCTCATTACGAGCAGCTTTTGGCGTCGATCCTGGCTCAGCCGGGTGCGCGTATTGCGGATTTGGATATCTTGACGAACAGCGAAAAGCATGATTTGCTGGTCGGGTTTGACGTGTCGTCTTCGGTTCTTGCGAAGCAACCCGCCGCAGAGGGTACAGGCTTGGAAGCGGATGAGTCGTGGAGAGAGAGAACGTTCCACGAGCTGTTCGAGGAGCAGGCGGAGCGCACTCCGGGAGCGCTGGCGGTTGTCTATGAAGACAGCAAGCTGACGTATGCGGAGCTGAACGCCAAAGCGAATCGTCTGGCGTATGCGCTGCGGGCGCGCGGGGTGAAGCCGGAGCAGGTGGTCGGCATTCTGGCCGGCCGTTCGGCGGAGCTGTTGATCGGGGTGCTCGCCGTATGGAAAGCGGGCGGCGCTTATGTGCCGCTCGACCCGGACTATCCGGCGGAACGGATCGAGTATATGCTCGCGGACAGCGGGGCGTCGGTGCTGCTCACGCAGACTGGCCTGCTGGAGCAGGCGGAAGCTTGGCGCAGCGACGGAGCTCTAGCGCTGCAAACGGTGATTGCGCTTGACGACGCCGCGACGTACAGCCTCGGAGCGGCGGATCTCGCATCGAATCCGGCGAATGTGAACAAGCCGCGCGATTTGGCTTACGTCATCTACACCTCCGGTACGACGGGCCGTCCGAAGGGCGTGGCGGTGGAGCACCGCAGCCTGGTGAACACGGCGGCGGGCTACCGGCGGGAATACCGCCTGGATCAGTTCCCGGTGCGGCTGCTGCAGCTCGCCAGCTTCTCGTTCGACGTGTTCGTCGGCGACATTGCGCGGACGCTGTACAACGGCGGCACCATGGTCATCGTGCCGAAGGACGACCGGATCGATCCAACCCGCCTCTACGGCTGGATTCGCGACTACGCCGTGACGGTGTTCGAATCGACTCCGGCGCTGATCGTGCCGTTCATGGAGCATGTACATGCTGAAGGTCTGGACCTCAGCTCGATGCAGCTGCTGATCACAAGCTCGGATGCGTGCAGCGTAGCGGATTATCGCACCTTGCAGGAGCGCTTCGGCTCGCAGTTCCGTATTATTAACAGCTACGGCGTAACGGAAGCGGCGATTGACTCCAGCTTCTATGACGAGCCGCTGGAGAAGCTGCCGAAGACGGGCAGCGTGCCGATCGGGAAAGCGTGGCTGAACGCCAAGTTCTACATCGTGGATGCGAATCTGAAGCCGGTACCGATCGGGGTGTTGGGCGAGCTGATTATCGGCGGAGCGGGTGTGGCCCGCGGTTACTTGAACCGCCCGGATTTGACGGCGGAGAAATTCGTAGACAGCCCGTTCGCCGCTGGGGAGCGGCTGTACCGGACGGGCGACCTGGCGCGCTGGATGCCGGACGGCAACGTGGACTTCATCGGCCGGATCGACAATCAGGTGAAAATTCACGGCTATCGGATCGAGCTTGGAGAAATTGAAGCGGCTATGCAAAATGTTGCCGGAGTGCGTCAAGCGCTTGTCATCGACCGGACGGACGAGCGGGGGCAGAAATATTTGTGCGGGTATGTCGTAGCGGATTCCAGCTTCGGTCTGGAAGGGCTTGTGGCCCATCTGGACGCCGCGCTGCCTTCCCATATGGTGCCTTCGCGCATCATGCGCCTGGATCAAATGCCGCTTACGCCGAACGGGAAGATCGACCGTAAAGCGCTGCCTGTGCCGGAAGGAAGCATTCGTGCCGAGGCTGCATACACGGCGCCTCGTACTCCTGCCGAGCAAGCACTTGCGTCGGTCTGGCAGTCGGTGCTGGGCGTGGATCAGGTCGGCACGATGGACAATTTCTTTGCGCTCGGCGGCGATTCGATCAAGGCCTTGCAGGTATCGTCCCGTCTTTTGCAAACGGGGTACAAGCTGGTCATGAAAGATTTGTTCCATTACCCGACGATTTCCACCCTTAGTTTGCAACTGCAAACGGCGGAGAGAACGGCAAGCCAGGCCGAAGTGACGGGAGAGGTCATCTTGACCCCGATTCAGCGCTGGTTCTTTGAACAAAACCCGGCCGACTTGCATCACAGCAACCAGGCGTTTATGCAGTTCTCCAAGCATGGCTTTGACGAAGAAGCTTTACGCCAAGCGGTGCGTCAGCTTGTCGTGCATCACGATGCTCTCCGTACGGTTTACCGCCAAACCGAGAACGGCTATATGGCCTGGAACCGCGGCGCCGGGGAGAACGAAGCGCTGTTCGATCTGGAAGTTGTCGATTGCAAGGGAGTCGGCGACGTGAAAGAAGCGGTAGAGGCTAAGGCGAATGACATTCAAGCGAGCATCGATCTGGAGAACGGTCCGCTGGTGAAGCTCGGCTTGTTCCGCTGCGACGACGGCGACCACCTGCTCGTCGCGATCCATCACTTGGTCGTAGACGGCGTATCCTGGCGGATTCTGCTTGAGGATTTTGCTGCCGGCTATGAAAAGGCGCTGCAAGGGCAGCCGATCCGTCTGCCCCTCAAAACGGCTTCATTCCAAACGTGGGCGAAACAGCTCGCTGATTATGCGAACGGTCCGGCGATGGAAAGCGAGAGAGAGTATTGGCAGCATATTGAGCAATTGACCTATGAGCCGCTTCCGAAAGATTTTGAACAAGGCAGATCCAAGCTGAAGGACAGCGGGCTCGTGACCGTCCGCTGGACGGCGGAGGAAACCGAACAGCTGTTGAAGCAGGCACACCGTGCTTACCATACAGAAATGAACGACTTACTGCTTGCCGCGCTTGGCCTCGCGGTACAAGCTTGGAGCGGCCGGGAACGCGTGCTGGTGAATCTTGAAGGCCACGGCCGGGAAGATATTTTGCCGGATGTGGACATTACGCGCACGGTAGGCTGGTTTACAAGCCAATTCCCTATCGTTCTGGAGCCGGGTCACGCCCAGGCGCTCGGTCACCAGGTGAAACAGGTTAAAGAAAGCTTGCGCCGCATTCCGAACAAAGGAATCGGCTACGGCATCCTGCGTTATTTGTCGGTGCCGCGTGACGGCGAGCGCTTCGCTTTGGAGCCGGAGATCAGCTTTAACTATTTGGGTCAGTTCGACCAGGATTACGAAAGCAGCGGCTCGCAGCCGTCTCCGTTCAGCCCGGGCTCCGATTCAAGCCCGAATGCAGTGATGGATTTTGTCCTCGATATCAATGGTATGGTGTCGGAAGGAGTGCTGGAACTCACGATCCGTTATGGGGAAACCCAGTATAAACGGGAAACGGTAGAGCGCCTGGGCACCCTGCTTCAATCGAGCTTGCGTGAAGTCATCAGCCATTGCGTATCGAAAGAGCGGCCGGAGCTTACGCCTAGCGACGTTCTGCTTCAAGATGTGACGGTGGAGGAACTGGAGCGGCTGGCTGAACATACGGCGGCGCTCGGCGAACTGGAGAATGTTTACACCCTGACTCCGCTGCAAAAAGGGATGTTGTTCCACAGCCTGCTGGATGCCGATTCGGAAGCTTACTTCGAACAGGTGACCTTCGATCTGTATGGAAGCCTGAATGTCGAAGCCTTCACCCAAGGATTGGATACGCTGGTGCAGCGGAATGAGGCGCTGCGGACCAACTTTATTACCGGCTGGAGAGACGAGCCGATTCAAGTGGTATTCCGCGAGCGGAAGTGTGAAGTGTACTTCGAAGATATTCGCTCGGTAAGCGATGAAGACCTGGAGAAGACGATAGCCGATTTCGTCAGCGCGGATAAAGCGAACAAGTTCGATTTGGCCCGAGGCTCTCTTATGCGCGTGACGGTATTGCGCACGGGCGACGAGTCCTACCATGTGATCTGGAGTCATCATCACATTTTGATGGACGGCTGGTGCATGTCCTTCATGATCAAGGAAGTGTTCGACACCTACTTCGCGTTCCAGGAGAAGCGGACGCTGGAGCTTCCTCCGGTTACCTCGTACTCCCGGTATATCGAATGGCTGGAAGCTCAAGATGCCGCGAAAGCTTCGCGTTACTGGTCCGAGTATTTGGCGGGTTACGATCAGCAGACCAAGCTGCCCCAGGAGAAAACGCAGCTGAAGCAGGGCGCTTTTGAAGCGGCTGAACTCGATGTGGAACTCAGCAAGGAACTGACCGGGCAAATCAAGCGGGTGGCGCGCCAGCAGCAGGTGACGCTCAATACGTTCATGCAGACCGTATGGGGACTGGTTCTGCAGGTATACAACAACAGCGAGGATGTCGTATTCGGCTCCGTCGTATCCGGGCGTCCGGCGGAAATTCCGGGCATCGAAAGCATGATCGGCCTGTTTATTAATACGATCCCGGTCCGTATTCAAGGCAAAGCCGAGGAGACGGTAGCCGATGTCTTGAGAAAAACCCAGGATCAAGCGCTGGCATCGGGAGCTTACGAAACGTTCCCGCTGTTCGAAATTCAGTCGCTGAGCGAGCAAAAGCGCGACTTGATCAACCATATTATGGTCTTTGAAAATTATCCGATGGAAGAACAGATTGAGCAGGTGGTCGGCGGAGACAAAGAAGCGCTGAAAATCGCTAATATCCAGTCGCCGGAGCAAACGAACTACGACCTGGACATTACCGTCATTCCGGAAGAGCATATTTTGCTGCGGTTTACGTACAATGCGCTGACGTTCAGAGAGGAAGACATCAGGCAGATCCACGGTCACTTTGCCCGGGCACTGGAGAAGGTTGCGGCTAACCCGAACATCCGCGTGAATCAGTTGGAGCTTTTGACA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTCCGGTTACCTCGTACTCC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGTAACCCGCCAAATACTCG </t>
+  </si>
+  <si>
+    <t>ATGCAGGAAGGGATGCTATTTTACTCACTGCTTCAGGAAGATCCCGGCATGTATTGCTTGCAATTATCGTTAACGATCGAGGGAGATTTGAATCTGGACGCAGTTCAGCGCAGCTTCGATGCGCTGCTGCGCAAGCATGACATCCTCCGGACGATCTTCGTGCATGAGAAGCTGCAGAAGCCGCGGCAGATTGTCCTGAAGGAGAGGACAGCCCAGGTTGCGTTTGAAAATTTGCTGGACCTGTCCCCGGAGAAGCGGCAGGAGCGATGGGAAGCCTATGAGCGGGAGGACCGGAGCAGAGGCTTTGATTTGGCCAAGGACGTGCTGTTTCGCTTGGCGGTCTTTCGCACCGGCGAACGCAGCTGGCGAATGCTCTTCACCCATCACCATATCATTCTGGACGGCTGGTGCTTTCAGATTGTGATGCGCGATTTTTTCGACATCTACGCAACCCTGCTGGGCAACGGCATGTGCAGCGGAGAACCGTCTCCTCCTTACAGCAGCTATATTCAATGGCTGGACAGGCAGGATCGGGATGAAGCCTTGCAGTATTGGCGGAAGCGTCTGGAAGGGTACGAGCAGCCGAGCACGGTACCCGCGCGCCATGCTGCGAAGGGCGGAACGTATGAAAAGGCGGATTACGTGCAGCCCCTGGACGAGGAACTGCAGCACAGCTTGACAAGGCTGGCCCAGACCTGCCAAGTCACCTTGAATACCGTCATGCAAGCAGCGTGGGCGATTGTGCTGCACCGGTACAATCAGGCCGATGACGTCGTATTCGGCGCCGTCGTGTCGGGGAGGCCGCCCGAAATCGAAGGAATTGAGCGCATGGTCGGCCTCTTTATCAATACCGTTCCCGTCCGCGTGCGTCTTCGCAAGGAAGAGGCCTTTTCTTCTCTCGTCCAAAGAGTGCAGCGGGACATGGTGGAAGCGGAAAAATATATGTATCTATCGCTTGCGGACGTGCAGGAGCAGTCGCCGTTAAAGCATCGCCTGCTGGATCATATTATCGCCTATCAGAACTATCCGGCGCAAGCGTCCGATCCGGAAGAAGAGGCGGCGCTGTTGAAGTTTACGATCACGGGCATGCATTCCCGCGAGCAAACGAATTATGATTTTAATTTGACGATTGCGCCCGAGGAAGGGCTGTTCATGATCAATTATAACGCGGCCCTGTATGGCCCCGGCCCGGAGGAGATTCAGGCCATCGCGCAGCATTATATGGCCGTTCTGCGGCAAGCGGCGGCCGATCCGGCGCTGCCCGTAGAAGCAATGGAGCTAGCCGACGGCGAGGAGCGGCGGCTCCTGCTTGAGCTGGCGGCTCTTGAGGGGCATGGCCGGCCGGCGCAGCATACGCTGGATGAATATTTTGAGCGGCAGGCGGCTGCCCGCCCGGAACATGCCGCATTGATTGAAGGCGGAACGAGCATGACCTACGGAGAGCTGAATTCACGGGCGAACCGGCTCGCCCGCCGGCTGCGGCTGAAGGGGGTCCGTCCGAATGTGGTCGTAGGGATGATGACCGGACGCTCGGCCGACATGATCGTCGGCATATTGGCCGTGCTGAAGGCAGGAGGCGCTTATTTGCCCATCGACCCGGCCTATCCCGGCGAGCGGATCGCCTATATGCTGGCCGACTCGGCTGCGGCTCTCCTGTTGAGCGATCGCGCTTCCGCCGCCAGCCGGGCGCTAGCGGATTTCGCCGGAGAAGTCATTCAGATAGAAGAAGAAACCGCGCTGGAATGCGACGATTCGAATCTGGAGCGTCTCGCTGCTCCCTCCGACTTGGCCTATATCATTTATACGTCGGGCTCGACCGGCCAGCCCAAAGGGATTTTGACGGCTCACCGCAATGTCGAGAGAGTAGTAATCGATCCAGGATACATAGATATTTCGCCGGACGACCGGATATTGCAGTTGTCGAACTATGCCTTTGACGGCTCGATCTTCGATATTTTCGGCGCCCTGCTCAACGGCGCTTCGCTGGTGCTGGTTCCGAAGGAGCTCATGCTGGATATGGAGCAGTTGTCGGCGTACATTTCCGCTCAGAACATCACGATGTTTTTTACGACGACGGCTTTGTTCAATACGCTGGTTGAAGTGAACGCTCATGCGCTTCGCGGGCTTCGCCATGTGCTGTTCGGCGGGGAGCAGGTCACGATGTCTTATGTGGACAAGGCGTTCCAGGTGATGGGGCCGGGCAAAATCATTCATGTATACGGCCCGACGGAAAGCACGGTCTTCGCGACTTTCTATGTTGTAGACCGCCTCGCATCGGATAGCCGGACGCTTCCGATCGGCAGTCCGCTGCGGAACACCGGAGCGCTCGTCTTGAACGAGTACGGACGGCTGCAGCCGATCGGCATTCCGGGAGAGCTGTGCATTACCGGCGAAGGCTTGGCGTCCGGGTATGTGAACCGTCCGGAACTGACCGCCGGCCGCTTCGTCCCTTGTCCTTATCTGGATGGGGAGCGGATGTACAAGACGGGGGATTTGGTGCGCTGGCTGCCGGACGGCAAGCTGGAATATATGGGGCGGATCGATCATCAGGTCAAAATCCGCGGCTTCCGGATCGAGCCGGATGAAATTGCCCATAAGCTTTTGCTGCACAAGGCGGTCAAAGAAGCGCTGGTCATCCCTTACAAAGATGAAGCCGGGCATGCCAGCCTCTGCGCTTACCTCGTTCCGGAAGGGGAATGGAGCAGAGCGGATATCCGGGCGCATTTGTCCCGCGCCTTGCCGGATTATATGATTCCCTCCTGCTTCGTGGAGTTGGACCGGTTTCCGCTGACGCCGAACGGAAAAATCGATCGGCGCTTGCTTCCGGAGCCCGATGCTGCTATGCGCGCCGCCGCCGAATATGAGGCTCCCCTTACGGAAGCCGAACAGAAGCTCGCCGGCCTGTGGCAGCAGCTTCTCGGGGTGGAGCGGGTCGGAAGACACGATCATTTCTTCGAGCTGGGAGGGCATTCGCTGAAAGCCACGATGCTGATTGCGCGGACCGCCAAGCTGTTCGAGGCGCCGCTGCCTCTCCAGGAAGTATTCGCCCGGCCGGTGCTGCGCGACATGGCGGCGTTGCTGGACCGGACTCCGCGGCAGCGGTACGAGACGATCCGGCCCGCCGAGCTTCGGGAGCTGTATCCCGCATCTCCGGCCCAGAAGAGGATCTATGTGGCGACCCAATTGGACGGAGCGGATCTCAGCTACAATATGCCTCTTCTGCTCCGAGCGCCTTATCCGCTGGACCGGCAGCGGGTAGAGCGGAGTCTGGAAGCATTGGCGGCGAGGCATGAGAGCCTCCGCACCTGCATCGTGCGTGACGGGGAGGAATTGTTCCTCAGAGTGCTTCCCGGGGTAACGGTTCCGCTCGCTTGCCAGACGGCCGCGGAGGAGGAGGTCCGGCAGATCGCCGCCGGGTGGATTCGGCCCTTCGATTTGCGGGAGGCGCCTCTGCTGAGAGCGGGTCTGATCGAGACCGGCAGCGGGGATTCCTTTTTGTTTTTAGACATGCATCATATCATTTCGGACGGCGTGTCTCTTGATATTTTGCTGCGCGAGTTCGCGCAGCTCTACGACGATCCGCATGCGCCGCTCGATCAACTGCCTGTTCAGTACACAGATTTTGCGGTCTGGCAGCACGAGCAGATGGAGACGGAGCCGATGCGGAAGCAGGAGCGGTACTGGCTCGACCGATTCGCCGGGGACCTTCCCGTTCTGCAGCTTCCGACCGATTTTCCGAGACCTTCCGTGCAGCAGTTTATGGGCGATACGGTAGAGTATGCGTTATCGAGGGACATGACGGAACAATTGAAACGGCATGCCGCCGAGAACGGGACGACCTTATTTTTGCTGCTGCTGGCAATGTACAACGTTTTGCTGCACAAATATTCGGGGCAAGAGGATCTCGTGGTAGGCACGCCGGTTACGGATCGTCCGTTCGCTGAGCTGGAAGGCGTCGTCGGCCTGTTCGTCAATACCGTTCCGGTGCGAAGCTTCCCGCAGCCGGATAACACGTTCGGAGCGTTCCTCGAAGAAATGCAGCGTACCGTAATCGAAGCATACGAGAACCAGGCTTATTCCGCCGATCAGTTGGCGGAGAGCTTGAATCTGCGCAGGGACGTCAGCCGCAGCCCGTTATTCGAGACGATATTCGCGCTGCAAAATGTCATTGAAGATGCCGGGGCAAGCGGGACAATGGGCTGGACTCCCGTCGAAATGGATCATCACGCGGTTCAGTTCGACTTGGCGGTGGAGGCGGCTGAATACGACGGCGCGTTGGTGCTGCGGTTCGAGTATAGCACAAGCCTGTTCGCACGGACGACGATCGAGCGGATGGCCGCGCATTTCGAGCAGATTGTCCGGACGGCGCTGGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGCTCTTCACCCATCACCAT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCTGTAAGGAGGAGACGGTT </t>
+  </si>
+  <si>
+    <t>AACCTGGAGTATCTGGGACGCCTCGATCAGCAGGTGAAGGTGCGCGGTTACCGGATTGAGCCGGGCGAGGTGAGCCACCAGCTGCTCCAGCATCCCGCGGTAAGAGAGGCGCTGGTGACGGCGGATCGCGAGGAGGGAGGGCATGCCTATTTATGCGCCTACCTTGTGACGGAGCGGGAGTGCGCCGTGTCCGACCTAAGGGCCCATTTATCCCGCAGCATGCCGGAATATATGATCCCGTCGTATTTCGTGAAGGTGGAGCAGTTCCCGCTCCTGCCGAACGGGAAGATCGACGTCAAGGCGCTGCCGGCCCCGGATCTCGCGGACGCGGGAGCCGAATATGTGGCGCCCCGCAGCTTCATCGAGGAGACCTTGGCGGCAATATGGCAGGAGGTGCTCGGAGCGGAAAGAGTCGGTGTATACGACCATTTCTTTGAGCTGGGAGGGCACTCGCTGAAGGTAAGGCTGCTTACCGCCCGCATCGAAAAGGAACTGCAGGTCGACATCCCGCTCAAAGAAGTATTCGCCCGCCCGGTTCTGGAGCATTTGGCGGCATACGTTCAAGAAGCGCAGCGGCACAAGCGCCTCGAGATTACGCCGGCCGGACCGCGGGAGCATTACCCGGCTTCCTCGGCCCAACAACGCATGTACGCCGTCAGTCATCTCCGGGAAGCGCGTCTCAGCTACAACATGCCGATGGCCTTTCGGATGAAGGAGCGGCTGGAGCTTTCCAAGGTGGAAAGCGCGGTGCAGCTGCTGGCTGACCGGCATGAGAGCCTCCGGACGTCTTTCCATATGATCGGCGAGGAACTGGTCCAGCGTATTGCGCCGCATGTCCGGATTCCGGTGCATTACTGGGAATGCCAGGACGAGTCGGAGGCGGAGCAGCTGCTTGCGAGTTGGATCCAGCCTTTTGATTTAGGGCAGGCCCCTCTGTTCCGGGCTGGATTGATCCATATGCGAAGCGGCGGCGATCTTCTGCTGCTGGATATGCATCATATGATTTCGGACGGGAGGTCGATCGACACTCTGCTTGAAGAATTCGCCTTGATTTGCGCCGATCAGCAGGAGCAGCTCCTTCCGCTGCCGGTGCAGTACAAAGATTTTGCCGTATGGCAGCATGAGCGGATGAATCCGGAGCAGATGGCGGAGCATGAGCGGTTCTGGCTGGACTCGTTCGCGGGGGATATTCCGGTCCTGCAGCTTCCGGCCGATCGGCCAAGACCGCCCCTGCAGCAATTCGAAGGGGAGGTCGTCACGGCGGAGCTGCCTCCCGAGCTGACGGCAAGCATCAAGCGGCTCTCCGCGGCATGCGGAGCGACGGTCTTTATGACGCTGCTTGCCGCCTACAACGTCCTGCTGTCCAAATATAGCGGGCAGGAGGATATCGTCATTGGAACGCCGGTATCGGGAAGGCCGCAAGCGGAGCTGGAGCAGGTGGTCGGAATGTTCGTGGATATGCTGCCGATCCGCAGCCGCCCGCAAGCCGATCTGACCTTCCGAAGCTATGTGGAAGACGTGAAAGACCGCGTTCTTCTCGCCCTCGAGCATCAAGAGTATCCTTTGCACGAGTGGTTCGACAAGCTGGCCTTGCGGCGGGACGGAAGCCGCAATCCGCTGTTCGATACGGTCTTTTCCTTTGCGGCCGGGGGCGGAGCTTCTTCCTTCGCGGGAACTCCCGCAGCCTTGGAGTGGAAGGTGTCCAAGTTCGATTTGACACTGGAAGCCGTGGAAGAGAAGGATGGGATTCACCTGCATTTTGAATACAGCGCGAGCCTGTTCGATCACGGGACGATCGAGCGCATGGCCCGGCACTTTATCCAGCTGGTCTCCGTCATGACTGAGTTCCCTGACCGGAAGCTGGCGGACGCGGAGATGATAAGCGAGGAAGAACGGGCGGAGCTGGATTCGTTCAATCGGACCTGGACCGAATACCCTGCCGGGCGGACGGTCCAGGAGCTGTTCGAGGAACAGGCGGAAAGAGCGCCTGAGCAGACGGCGGCGGTATTTGGGGACCGCTTCCTGACTTACCGCGAATTGAACAACAAAGCCAACCGCCTCGCCCGGGTGCTGCGCTCCAAAGGCGTCGTTCCCGATCAGCCCGTCGGCCTGAAGGCCGGACCTTCTCTGGAAATGCTGATCGGCATTCTCGGCATTATGAAGGCGGGCGGAGCCTATGTTCCGATCGATCCAGGTTACCCGGCGGAGCGGATCCGGCACATGCTGAACGACAGCGGCGCCCGCATTCTTTTGACCGAAGCGGGGGAAGACGGCGGAGGCTCATGCGAGACGATCGGCTTGACGCCTTTCCTGCAGCATGAAGGGGAGAGCTCCAACCCCGAAGCCGCGAGCGGCCCGGAGCATCTGGCCTATATCGTGTACACCTCCGGATCGACCGGCGTTCCGAAGGGCGTCATGATCGAGCAGCGATCGCTCGTCAATCTCGTATATTGGCATAACCGGACTTTCCGGATTACTAGCGGCGATAGAAGCGCCAAATTTGCCGGCGTCGGGTTTGACGCTTCGGTATGGGAGATATTCCCTTACCTGATCGCGGGCTCCGCGATCCATCTGATCGATGAAGCGACTCGGAAAAATATTTACCTGCTCAATGAGCACCTGGAGACCCATAGCATCAGCGTGTGCTTTTTGCCGACCGCCCTATGCGAGCAGTTCATCCGGATCGAGAACCGGTCTTTGCGCCTGCTTCTCACCGGGGGAGAAAAGATGCATAGCGCTCCCGAGCATACGGCGTATACATTGGTCAACAATTACGGGCCTACCGAGAACACCGTCGTCACGACGAGCGTCGAGATTCGGGACAAGTCGGAGCGGATACCGATCGGCAGACCGATTCATAACTGCCAGATCTACATTATGGATCGGCATATGCGCCCGCAGCCGATCGGAATTCCCGGCGAAATCTGCATTGCCGGAGCCGGATTGGCCAGAGGCTATATGAACCTGCCGGAGCTTAACGCGGAGAGGTTTGTCGCTCATCCTTCCGTACCTGGAGCAAAGATGTACAGAAGCGGAGACATCGGGCGCTGGCTGCCGGATGGTACGGTGGAATTCCTGGGAAGGCAGGACAATCAGGTCAAAGTCAGGGGGCACCGCATCGAGCCAGGGGAGATCACGCGCCAACTGATGCGGATACCTGCCATCCGGGAGGCGACCGTCGTTGCCCGAGAAGACGGGCAGCGGCAAACCTACTTGTGCGCTTATTTTAGCGCCGTGCAGCCAATGGATATCCCTAAGCTGCGCTCCACGTTGGCGGATGTACTGCCGGAATATTGCATTCCCGCTTTCCTCGTGCAGGTGAAGGAGATTCCGGTTACCGCGAATGGCAAGATCGATCATCAGGCCTTGCCGGAGCCATACGAGTTTCTGTCCGGATCGGCACCGTTCGCCGCCCCGCACAATGCAGTCGAGCGGGAGCTCCGGGACATCTGGTCCGCGGTATTGGACATTCCGGCGGATTCGATCAGCGTGAGAGACAGCTTTTTAGAGCTGGGCGGGAACTCAATTAATATATTGAAGCTGTTGTCGATGTCGGTCTCCAAGCAATGGAACGTGTCCATCCAGGATTATTTTGAGCTGAAAACGATTGAAAATATTGCCCGGAAAATAATGGAGCCATCGCGATCGATAAGCCTCGACGCACCGGAGTTCCGGATCGACTTGAAGCAAATGGCGAAGAAGAGACGGCCTCTTCCGCTGACTGAAGGAAGCCGCGTCTTGTTGACGGGCGCTACCGGGTTCCTCGGCATTCATCTGTTGGACGACATGCTGGAGCAGACGGAGAGCGTCATCTGCTGCCTTGTCCGCGGCAGCGATCAAGCGGCGGCGGAGGCGAGGCTGCTGGAAGCCGTCGGCTATTACCATCCCGATAAATTCTCCCGCTATGCAGCGGCATTGGGAGAGCGAATCCTCGTCATCAACGGGGATATTACGCTCGAACGGATGGGACTGACTCCTTCGGAATACGCCGATTTGGAGCGCGGCATTGACCAGATCGTCCATGCGGCCGCCATGACCAAGCATTTCGGAGACTACCGGGAATTCGAACAATTTAATATCGGCGGCACCGAAGCGGTTCTTCGACTGGCGGCTGCCGGGAAGCGGCTGCACTATATTTCAACGATGAGTGTGAGCGGCCATGTGGCGCAAGGGGAAGGGGAAGTCAGTTTCCGCGAGGATGATTACTTTATCGGGCAAGAGTTTACGGACAATGTGTATGTGAAAAGCAAGTTCCTGGCGGAAGGGCTTGTCTTGAATGCGATTCGGGAGGAACGGGTCGATGCGAGTGTCTACCGCGTGGGGCTGATTACGGGAAGACAAGCTGATGGGCTGGTCCAAAGCAATATTGCCGACAATGCCTTCACGAATACGCTGGAAACGATCTTTAGGCTGGGAGCGGTGTCGGAAGACATCCATAAGGAGCAGATCGATTTTTCGCCGGTCGATAGGTGCAGTGCCGCTATTCTGGCTCTGATTCAATCGGCTTCGGAACAGCCGGGCATTCCGGTATACCATATCTATAACCCTCACAAAATGACGATTCCGCAGTTTTTCCGATTGGCCGGAATCGAGATTGGGGTCATGGCCAACGAGCGGTATGACGAATGGATCGCTTCCGTATCCGATGACCGGGAACGCTTTGAGGATTTGATGGGCTTTATGTACTATAACGTGGAGATTCGGGAGGAGTACCAGGCTCTGGTGCGCACGGACTCCGCTTATACCCAGGCTTGCCTGGAAGAAGGCGGCTTTACGTGGGCGCCTCCTGCCGAGGCGTATGCCCGCAAGCTGATGCAGCAGTTGAGGAATAAAGGTTATTTTATGCCCCGGCAGAAGGAGGGGGCCATTTCCTAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CACAAGCGCCTCGAGATTAC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGCATGTTGTAGCTGAGACG </t>
+  </si>
+  <si>
+    <t>ATGAAGAATAGAGTGGCCATCAGCGGCATGGAAGTGATTTCTCCCTTTGGTTACGGACGGTCTGTCTTCGAGAACGGATTATATTCGGGCACGTCCGCCATTGGCGACATTACGCGTTTTGATACGGCTGCATTCCGCAGCCGCCGGGGCGGGCAGGTGCCGGATCACGGCCCGTCTGCGGAGAAGCCGTCCAGCCGCTTCCTGTCCTATGTCATGAGTCAAGCTCTCCATTCCTCGGGACTGACCGGGGCAACCGATAGCCGGGAGTTGGAGGCCGGTCTGATCCTCCCCGTGGTGACGGGGCAGACCGAACATTCTCTGGGCGAAGCCGCGGACGATTGGCTGGAGGATCCGATAGAAGCACTCGCCGATCCGGGCCCGTTCCTTCCTTTCGGGACGATTCACCGGATCACGTCAGCCTGCGCTTCCATCAGTTCGGCCCTTGCGATGGGGCGGAGCATGATACGGCACGGGCAATTGGACATCGTTGTCGTCGCGCGGGCGGAGATCTTGAATAGGTATGATTTCGCCTCGATGGATATTGTAAGGGCGATTTCTCCCACAGACGCGAGACCGTTTGATGCGGGGCGGAACGGAATCATGATCGGAGAGGGCGCCGGTGCGGTGATTCTGGAGTCGGAGAGAAGCCTGGCGGCAAGGGGCGGTCAACCTCTCGCCTGGCTCGACGGCGCTGCCAACTGCGTCGGCGGCGCGGATTTGAACATGATCGACTTGGACAAGCAGTGCGTCGTCGATTGCATGAAGATGTCTCTAGCCATGGCGGGGACGGAGCGGGCGGACTATATCCATGCGCATGCTACGGGGACGCCGCAGGGCGACGCTTATGAGTCCGAGGCGTTGTTCGAGGCGATGGACGATGCCGGGAATATTCCGGTCAGTTCGCACAAAGGCGCTACGGGACATCTGCTGCGCTGCTCCGGATTTCTGGGGATCGCCGCCGGCATCGCGAGTCTGCGGCTCCAGTGTCTGCCGCCTACGGCGGGGCTGGAGGTTCAGGACCCGCTTATTCGGGCGCGGCTGGTAACAGAACGTCTTCCGTATAAGACGTCAAGCGTTCTGGTGAACAATTTCGGATTTTGCGGCAATTACGCTTCCGTGCTTTTGCGGCACAGCCAATCCGAATCCATGCCCGGGGGAGTGTAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCAAGCTCTCCATTCCTCGG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTCGCCCAGAGAATGTTCG </t>
+  </si>
+  <si>
+    <r>
+      <t>GTGAAGGAGCCGCAAAAACTGGACAAAAGCAATGTTGAAGATATTTTGGCGTTAACCCCGATGCAGTCAGGCATGCTGCTCCAATATTTGAAGGATCCGGATACGACGCAGTATGTGGAGCTGATTGAATTGGGCATCAGCGGCAACATCGACACCTCGCTGTTCGAACAATCGTGGGCATGCGTCGTTCAGGCGAACGAGGCGCTGCGCACCTTGTTCCGGTGGGAAGAGGTGAATCAGCCCGTACAAATCGTGCTGAAGCAGCACCGGCCCGTCATTCGTTACGAGAACTATTCCGAACTGGACGAGGAGGCCCGGGCGCGCCAGATCGCGGCACGGGTCGCCGCCGACAAACAGGAGAAGTTCAGGCTGGATCGGGTGCCGTTCCGGCTGACGCTATGCAAGCAGAACGAAGGAAAGCATACGCTGCTCATCAGCTTCCATCATATTTTGTTGGACGGATGGAGCACCGGCATTCTGTTGAAGGAATGGCTGAACGCCTACCGCATGCTGGCACAAGGGATAAAGCCGGAGCTGCGGCGCAAGCCGACGTTCAAGCAGTTCGTCGCGTCGCTGCAGCAGCAGGACAAGAATAAGCAAGAGAGCTACTGGAGCCGGTATTTGCATGAGCTGCAGACCAAGCCGATTCCGTTATCCCGAAGCGGGGCAAGCGCGGAAAAGGCGTCTATCGCCGTGCATACGGAAAAGCTAAGCGGGACCTATGTAGCGGACCTGCACCGGTTTGTGCGGACAGCGCAAGTGACGCAAGCGGCGCTTTTCTACGCCGCCTGGGGCATTTTGCTCCAGCATTATACGAATAGCGACGACGTGTTGTTCGGTATTACCGTATCCGGGCGCAACACAAGCATTCCCGGCATGGAGGACATGGCCGGCTTGTTCATCAACACGCTGCCGCTTCGCATGAAGGCGGGTCCCGAACACGGCCTGCCCGATCTCCTGGCCGATGTGAACCGTTCCATCCAGGCGCATGAGGACCATGCGGGGACTTCTTTGACGAACATTAAGGGATACGGCGGGATGCGGGCGGAAGGCGTCCCGTTCGATTCGCTGCTGGTGGTGGAGAACTATCCATTGGACAAGGCGGTCACCAGCGCCGAGGGGCCGCTTGCGATCACTTCCCATTATATCGAGGAAGAAACCGAGTTCGATCTGACGGTCCGCATCACGGCAGCCGATGAACTGGAGATGACCTTCGCTTATAACGAGCGGGCGCATCGTTCCGACACGGTGGCCAAGCTGGCTTCTCATTACCTCTACATCATCGAGCAAATCATCCAAACCTCTACCCAAGTTACGGCCTACCACGAAACGAGACTGCAGGATATCGGCATCCTTACCGCGGAGGAGCGGGAACAAATTCGGCATTTCAATCTGACCACCGCCAGCTATCCCCGTGAGAAGACCATTCACGAATTGTTCGAGGAACAGGTCCGGCTAGCGCCTGAAGGCACGGCCGTCACGGATGAACGGAGATCCATCACCTACCGGGAGCTGAATGAACAATCCAACCGGATTGCCCGCGCGCTGCGGGCGGATGGATTGGAACGCGGCCAGGTTGTCGGATTGCTGGCGAATCGCTCCACTGAAATGATCGCTGGCATGTTCGGGATTCTCAAAGCGGGAGGCGTCTATTTGCCGCTGGATTCTGCTCATCCTGCCGAACGGATCGCCTATATGCTGCAAGATGGGAAGGTAGACATCGTACTGGCTTCTTCCGGTCTTGAGTCGCTAGTGCCGGAACAGATGAAGGTAATGCTGTTGAACGAAGCGCTGCTTGGTTGCGGCGAAGCAACCGACATGCCGTTGGTGAACGGGCCGGAGCATCCGGCCTACGTGATGTACACTTCAGGATCGACCGGCGCCCCCAAAGGCGTGGTGGTCGGTCACCGCAATGTCGTGCGGCTGGTTCGCAATACGAACTACGTGCAGGTGCAGCCGGGAGATGGCGTGCTTCAAGCAGGGGCCATCGGCTTCGACGCCCTCACGTTCGAGGTGTTCGGGGCGCTGTTGAATGGGGCGAGCCTGCACATTCCGGATAAGCATACACTGCTGGACAGCACCAGGCTGGATGCCTTTTTGCGCTCGCGGAACATTTCGGTCGCAATTCTGACGCCGGCACTATTCAACCAGTTGGCGCAGCAGCGGCCGCAGATGTTTGCCGGCTTGCTGCACCTCATTGTCGCCGGTGATGTATTGTCGCCGAAGCACATCGAAGCCGTCCGCCAGGCATGCCCAGGGTTGACGATGTGGAACGGATACGGTCCTACAGAGAACACGGTCTTTTCGACCTGTTTTCGAATCGAACGCGAATTTGCCGATCATATTCCGATTGGTCCGCCGATCAGCAATTCCACGGCTTATATTGTCGACCGCCACGATAACCTGCTGCCGATAGGCGTTCCCGGTGAACTGGTCGTAGGCGGGGACGGGGTGGCGCTCGGCTACTTGAACCAGCCCGAGCTGACAGCGGAAAAATTCGTGCCGGATCCGTTCCGTCCTGAGGGCGTCATGTACCGGACAGGGGATATGGCCCGTTGGCAGGAGGACGGAAGCCTTGAATTTATGGGGCGGATCGATCAGCAGGTCAAGATTCGCGGCCACCGCATCGAGCTTGGTGAAATCGAGACGTTGCTCCTCCAGAATCAATCGATTGAACAAGCGGCGGTAACGGCGCTGCGGCGGGGCGGTCACACGGAATTGTGCGCGTATGTGGTTCCTTCCGGGCAGGCGCCGGCGTCCGAACTGCGGGCCTATCTAGCCGCGATAGTGCCGGATTATATGATCCCGTCGCATTTTGTGCAACTGGATCGCATTCCGCTGACGCCGAATGGGAAGCTTGACCGCAGGGCGCTGCCTGCTCCTGCGGAGCGCGCTCCTTCTGTTCAGGATGCGGCATTGCCGCGGACAGAGCTGGAGCGGCTCATCGCCGAAGCGTGGCAGGCCGTGCTCGAACTGGAGAGCGTAGGCATCCACGATAAATACTTTGAAGTCGGGGGGAACTCCATCAATCTGATTCAGCTCCAGAGCAACCTGCAAAGGCAGCTAAAGCGTGAAGTGCCTATCGTCACGCTGTTCCAGTACCCGACCGTCCATGAATTGGCGGCCTATTTGGCGGGGGAAGCGGACGGGACTCGGGGCCAGGCCGGCGATCAGGCAGCGGCCAGCCGCGCGGGCGGGCCGCATTCCGAAGATGCCGTATCTTCGGCAAGAGCAGGGAGTGAAGGCGGCCGCGACATCGCGATCGTCGGAATGGCCGGCAGATTTCCCGGCGCGCGCAATATCGCCGAATTCTGGAGCAACCTGGAGCAGGGACAGGAGTCGATCTCGTTCTTTACGGATGACGAGCTGGCTGAATACGGCTTTGACCGCGATTTATTGAAGCGGCCGGAATTCGTCAAGGCGAAGGGCGTGCTGGATGAGATGGAACACTTCGATCCGGCCTTCTTCGGCTACACGCCCGATCAGGCCGCCATTATGGACCCGCAGATCCGGCTGCTGCATCAATGCGCTTGGCATGCCCTGGAGGACGCGGGCTGCGATCCGGAACGCCACGATGGGTCCATCGGGCTGTTTGCCGGCATGATGAACAACTTCCATTGGTTGTCGCAGCTATCCGAGCGGCTGCACGGGAACTTGTCGGACATGTTTGAGGTGAATTCGCTCAATGATACCTATAGCGTCAGCACCCGCATTGCGCACAAGCTGAATTTGACCGGGCCCGCGATCAGTTTGCAAACAGCTTGCTCCACCTCGCTGGTGGCCGTCCATTTGGCGTGCCAGTCGATCCTCAGCGGCGATTGCGATCTGGCTCTGGCCGGCGGCGCATCGATCGTGCTTCCTCAGAAATCGGGATACCTGTATCAGGAAGGCATGATCAAGTCACCGGATGGACACTGCCGCACCTTCGACGCCAAGGCGAAAGGCACGATAGGCGGAGACGGCGTCGGCTTCGTCGCGCTCAAGCCACTGGAGGCCGCGAAGAAGGACGGAGACCGGATCTATGCGGTCATCAAGGGAACAGCCATCAACAATGACGGCAGCCGCAAGGTCGGTTATACGGCCCCGAGCGTGGAGGGCCAGATGGACGTCATTCAGAGGGCGCTGGCCGCGGCGCAAGTTCCGGCGGACAGCATCACGTACGTGGAGGCGCACGGATCGGGAACGCCGCTGGGCGATCCGATCGAGATCGAAGCGCTGACGAAGGCGTTCCGGTCGGAAAGAACCGGCTTTTGCCGCATCGGCTCTGTCAAGACGAACATCGGCCATCTAGATGCTGCGGCAGGCGTGGCTGGCTTGATGAAGACGGCATTGGCGCTTCATCACAAACAGATTCCGCCGAGCCTTCACTTTGAGATGCCGAATCCGAACATCGACTTCGCCAACAGCCCGTTCGTCGTGAATACGGCGCTCGCCGAATGGCGGAACGAGGCGGGGCCGCTGCGGGCCGGAGTGAGCTCCTTCGGCATCGGCGGGACGAACGCCCACGTCATTTTGGAGGAGGCTCCCGTGCGCGAAGCGTCAGGGGCGGGGCGGCCAAGCCAACTGCTGGCGCTGTCGGCCAAGACGCCGGCTGCGCTGGATGCGATGACGGCCCATCTCGGCGCCTATCTTCAGGAGCATCCCGAGCTCAGCCTCGCGGATGTCGCGTACACGCTGCAGCGCGGCCGCCGGC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>ATTTCAAGTACCGGCGCATC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTGTCCTGCGGCACGATCGAGGAAGCGATTGAGGCGTTGACGCCGGCTGAAGGCAGGAACGGCTTCG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>ATGAACGGAAGGTGGTGACT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>TGCGCCGCGGATGACGGGGGCAGCTCCGTCGTGTTCATGTTCTCCGGGCAAGGCTCGCAATACGTCAATATGGGAGCGGACTTGTACCGGCATGAGCCGGTGTTCCGCGCGGAGATGGATCGCTGCTTCCGCCTGTACCGCGACATTGCCGGACGCGAGATGAAGGACATCTTGTACCCGGCCGCGGATGCGGATGCGGAAGCGGCCGCCCTGCATATAAATCAGACGAAGCATATCCAACCGGTCATGTTCATGTTCGAATATGCGCTGGCGCGGCTCGTCATGGCGTGGGGAGTGAAGCCGGAAGCGATGATCGGCTACAGCTTCGGCGAATATACGGCCGCCTGCCTCGCGGATGTCCTGTCTCTCGAAGATGCGATGCGGCTCATCATCTTGCGCGGAGAGCTGATGCAGCAGGCCCCGGCGGGGGCGATGCTCAGCGTGCCGCTGCCCGAGCAGGATTTGAGACTCCGTCTGACCGGCACCTTGTCGCTGGCCGTCGTGAACGGGCCGTCATGCATTGTGTCGGGCTCGGAGGAAGATGTCGCCGCGTTCGAGCACAGCATGAAGGCGGAGAAAATCATATGCATGCGATTGCCGGTGGCGACGGCGGGGCATTCATCGCTGCTGCACGCGATAAAGGAACCGTTCGCCGCCGCCGTGCGCCAAGTGCGCTTGCAGCCTCCTTCCATACCGTATGTCTCGACGACGACGGGGACATGGATCACCGCGGAGGAAGCGGCTGACCCGGATTATTGGATTCGGCACCTGACGGATACGGTCCGCTTTGCCGACGGCATGGCGCTGCTCGCCCAAGAACCGCGCAGGTTATTCATCGAGATCGGTCCCGGCCAGGATCTGACCCTGCTCGCGCGCCGTCACCTCGGCAGCGGCCGCGACCAGCGGGCTCTCAACCTGGTTCGCCCGGCGCAGCGCGGCGGATCGGACAGCGCCTTGCTGGTCAACCGGATCGGCAGGCTGTGGCTGCACGGCCAGTCCATCGATTGGCAAGCGTTCCATGGGGAAGCCCGCGCCATCGTCTCCTTGCCGTCCTATCCGTTCGCCCGGGAGCGCTATTGGCCTCAAGCTTCCGAAGGCGCGCTGGCGGCGCCGGGAACGGGCCAGGGCAAGGGCCGCCCATCCAGCGGCAAAATGGGCAAACAGGCCGACATGTCCGACTGGTTCTATGTGCCGACATGGAAAAAGACGCCTGCCGCTCCCGCAAGCTTGAAGGGAGAGGCTGCCGGCAATTGGCTTGTCTTCGCCGACGGCGCGGGATTGGCTGCAGACATCGCCAAGCATCTCTCCGAACGGGGAGCCTATGTCGTTACGGTACGGGCAGGAGAGCGGTTTGAGCAAGAAGGAGCGATGCAGTATACGCTCCACCCGCGGAACGAGGGGCATTACGCGAGGCTGTTCTCCGAGCTTCAAGCACACGGGCGGCTGCCGAACCGGATACTGCATGCCTGGGGCGTGTCCGGCCCATCCGGTTCGGACCTGACAACGATACGGGCTGCGCAGGATCTCGGGTTCTACAGCGTGTTGTATACGGCCAAAGCGTTGAAGCGGCAGCAGGTCCGGGAAGAAATGCGCATGTGGGTGTTCACCGACAGCGTGCATGCCATCGCGGGCGAGCCTGTCCTGCATCCGGAGAAGGCGACGGTGCTCGGCCCGTGCCGGGTCATTCCGCAGGAGCTTCCGCACATGCAGTGCCGCAGCATTGACATCGTCTTGCCGGAAGCGGGGAGCTGGCAGCGGGAAAGGCTGATCGGCCGCCTGCTGGACGAATTCGGCGCTGCCGGAACCGAATTGGCGATAGCCTATCGCGACAATGCGCGGTGGGTGCTCGATTATGAGCCGTTCAAAATAAGCGAGCCCGAAGCACAGACGCCGGGGCTGCGTCCAGGCGGCGTCTATTTGATTACGGGCGGGCTAGGATACATGGGCCATACGCTTGGCGGTTATCTCGCCAGAAGCGTCCAGGCGAAGCTGGCGCTCACCAGCCGCTCCCCGTTTCCGCCTCGCGAGGAGTGGGATGCATGGGTGTCTGCCCATGGGAAAGAAGAAGCCGTCAGCGTCCAGATTGGCAAGCTGCGCCAGCTCGAAGCCCAGGGGGCGGAAGTGCTCGTGCTGTCCGCGGATGCTGCCGATCAAGAACAAATGGAGACGGCCATCCGGCAAGCCGAGGCGGCGTTCGGCCCCTTGAACGGGGTGATTCACGCGGCCGGGATGACGGGAGATGCTGCCTTCCGGATGCTGGAGGAGACGGTCGAGCCGTTATGCGAGCAGCATTTCCGGGCGAAAATGTATGGCCTGCTTGTTCTGGAGCGGGTGCTGGCGGGCAAAGATCTGGATTTCTGCCTGCTCGCGTCGTCATTGTCTCCGATGCTTGGCGGCTTGGGCTTTTCCGCCTACGCGGCGGCGAACCATTTCATGGATGCCTTTGTGCATGATCGCAACCGCCGCCAGCCGGTGCCGTGGACGAGCGTCAACTGGGACGGCTGGCAGCTGGAGGCGGATCAGACGATTCGCGGGCAAGCGGGCACTTCGATATCCGAGCTGCTCATTGCCCCCGCCGAGGGAGTCGAGCTGCTCCGGCGCTTGCTGCTGGTGCGGGACATGAGCCAGATCGTCATATCGACCGGCGATCTGGGCGCCCGGATCGACAAGTGGGTAAGACGGGAGGGGCAGCATGAGGAGCCGGAAGCATTCCGGCAAGGAGACGGCTCCTACTACTCCCGGCCAGCGCTGTCCGGCGAATATGCGGCTCCTGCCACGGAGACGGAACGGAAGCTGTGCGCGATGTGGGAGCAGTTTTTCCGCATCGACCGGATCGGCGTGCAGGACGACTTTTTCGAGCTGGGCGGCGACTCGCTCAAAGCGATAACGGTCGTCTCCGCGATTCACAAAGAGCTGAGCGTCGAGATTGGCCTGCCCGTTTTTTTCAATATGCCGACGATTCGGCAGTTGTCCGCTTATATCGACGGGGCGGAACGGAGCGCTTATCACGATATCGAGCCGGCCGAGGCGAAGGACTATTACGAGCTGTCCTCGGCGCAGAAGCGTCTCTATTTGATTCAGCAGATGGAACAGGGGCATACGGGGTACAACGAAATCGTCGCGGGCGTCCTGGAGGGGCGGCTCGACCGGGGGCGCCTGGAAGCGGCGCTGCGGCAGATGGTGGAGCGGCATGAAAGCTTGCGCACATCGTTCGAGCTCATGAACGGCAAGCCGATGCAGAAAATCAACGAAGCCGTCGCGATCGAGCTGGAATACGAGGACTACAGCGCCGCCGTCACGCCGCTTGACGGCGAGGAGGACGCGGATGAGCGGATTCGCGCCGCGGTGGCGGCATTCGTGCGCCCCTTTGACTTGACCCGGGCGCCGCTGATGCGGGCCGGACTGATCAAGCTCGGGGAGGACCGGCATGTGTTGATGGTGGATATGCACCACATCGTCTCCGATGGCTTGTCGCAGGACATTTTCGTCACCGACTTTCTGGCTCTGTATGCCGGGCGCGAATTGCCCGAGCTTCCGCTGCAATACAAAGATTTTTCCGAATGGCAAAACCGGATGATGGACACGGACGAGATGAAACGGCAGGGGGCGTTCTGGCTGGAGCGGCTGAAGGACGCTCCGCGGCTGTCCTTGCGCACGGACTATCCTCGTCCGGACACGAGAAGCTTCGCCGGCAGCCTCGTTCCGTTCGCGCTGGATGCAGAGCGGACCCAAGCCTTGAAGTCGCTCTGCCTGAGGGAAGACGTGACGTTGTTCATGGGCCTGCTCGCCATTTTCAACCTGCTGCTAGCCAAAGTGTGCGGACAGGATGACATCGTGGTCGGGACCCCGGTTGTCGGCCGCAAGCAGCAAGCGCTGCAGCTTATTATCGGCAAGTTCGTCAACATGCTTCCGCTGCGGAACCGGCTTCAGGAAGAGATGAGCTTCACCGATTTGCTTCAAGCCGTGCGCTCGACGACACTGGATGCCTTCGCTCATCAGGATTTCCAATTCGAGGAAATGGTGCGGCAGGCGGGAAGGGAACGCGAACTGGGCCGCAATCCGATTTTCGATGTCGTGTTCGCCTTGCAGAACATGCAGAATCCGGAGATGAGCATTCCCGGCTTAATGCTGAAGCCATTCCCGTTCGTTCACGACGCTTCCCATTTCGACCTGTCGCTCATCGCGGAAGAGGACGGAGACCGGTTGGCGTTCAAATTCGAATACAGCACCCGCTTGTTTGAGCGCGACACGATCGAGTGCTTTGCCGCATACCTGCAGGATATCGTGTCTGACGTGCTGGCCCATCCGGACAAGAGGGTCAGGGAGATTGAGATTGCGCACCATCTGGCCGAGCCGGAAGCGGTATTTCTCGCCGGCGCCCAGGGGGAATTCGGCCTATGA</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTTCAAGTACCGGCGCATC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGTCACCACCTTCCGTTCAT </t>
+  </si>
+  <si>
+    <t>GTGAGAGAGAATACTAACAAGCAATATGGATTAACGCAAGCCCAGCGCCGGATATGGTTCATGGAAATTATGAATCCGGGCACGTCCATCACGATGCTTTCCGCGACCTACCAAATTACGGGCAAGATCGACACACAGCTTCTGGAGCAAGCGGCGGCAGAGATCGTCAAAACCTATGACGCTTTCCGAATCCGCATTAGCGGGGATTTGCAAAATCCAACGCAGTGGTTCGAAGAACCGGAGAATGTCCAAGCCAGGATAAGCCGCCTCGAAATAGACACAACCGAACAATTCTATGCTTGGGTGAAAGAAGTAAGCGAAAAACCGGCCAGCGTGTTTGACGAATACCTCCACCAATTTACGATTATCCATTTCGCGAACGGCCAAGTATGGCTCAATTTGACGATTAATCATATTATCGCCGACGGTTTGTCCGTCACTGCCTTGCTGCATGCGGTGATGGAAAAATACCTGGAACTGCGCAAAGGCATCTCCAGCAGTTACCAGGCCCCCTCCTATCTGGATTATATTTTCGCGGAGCGTGAATATGAGCAATCGCAGCGGTATCAAAAAGGCAAGGAATACTGGCTGACGAAGTACAGCACTTTGCCTGAAACGACCGGCATTAAATCGTATCCGCCATTCGCGATCGGCAGCGAATCCAATAAACGGGCCATCACTTTGGACGGTTCCCGGTATGAACGCATTCTGGCCTTCAGCGAACAATATCAGGTCAGCTTATATACGTTATTTTTGTCCGCTATGTATGCCTTATTGTACAAGCTGACCGACAGCACCGATATTCCGGTCGGCACGGTTTTCGCCAATCGCACCAGCAAAAAGGAAAAAGAAACGATCGGCATGTTCGTCAGCACCGTGGCTACGCGGATTCGTCTGAATCCAGACGGGCACGTGCTTTCCTTGATCCAATCGGTTTCCAAGGAAAATACGGCGGATCTGCGGTATCAGAAATACCCTTATAACCAATTGATTCAGGATTTACGCGAACAACACGGCCGCAACGATCTTTCGGGGCTGTTCCGCACGTCTCTGGAATATCTGCCTTTGAAAATCGTGGAGTACGAAGAAATCAAGGTGCGTCTGGAGGCTCACTTCGCTAGGCATGAGATGGACGATTTGCTGCTGCGCTTCGACCATATGCTGAGTGAAGGCCATGTCATTCTCCATGCTTCCTATCGTACCGGCCTGTTCGAGACGGCCGAGATTGATCGGATTATGGAACAGTATGTAACTGTTCTGGACCAGTTTCTTCAGACTCCCGAACTGCCGGTACGCGAGATTTCTCTGCTGAGCGATGAGGAGAGACACCGCATTCTCAACGTGTTTAACCCGCCTGTGGCAGGGCTGAGCGAGGGAGAAGCGTTTCATCGGTATGTTGAAAAGTTTGCCCGGGAAATTCCGGATCATCCGGCAGTCGTCTACATGGACAAACAGCTGACCTACGGCGAATTGAACGAACGCGCCGAGCGACTGGCTTCTCTCCTTCGTGAACAGGGCGTCGGAAGGGAGACGATTACGGGGATCTGGGCGGAGCGTTCGGTGGAACTGCTGGTCGGGGTGCTCGCCGTTTGGAAAGCAGGCGGTGCCTATGTACCGCTGGACCCCGATTATCCGGCGGAGCGGATTGAATACATGCTCAGCGATAGCGAAGCATCGGTGCTGCTTACGCAGCGTCATCTGTTGGAGCGGGCCGAAGGTTGGTTGGCCGATGACCGGCTGAAGCTTCAAGCTGTCTATGCCATGGACGATGAACAGATTTATAACGGGGATGCCTTAGCCGGGGAATTTGAATCTGCCGGCAGCGCCCCGCAAGACTTGGCTTATGTGATTTACACCTCGGGTACGACGGGACGCCCGAAAGGCGTCATGATCGAGCACGGTAGTCTCGTGAGTACGGCGGATGCGTACCGTCGCGAGTATCGATTGGATCAGTTCCCGGTGCGGCTGCTGCAGCTGGCCAGCTTCTCGTTTGACGTGTTCGTCGGAGACATCGCCCGGACGCTGTATAACGGAGGCACGATGGTGATTGTGCCGAAGGATGACCGGATTGACCCGAACCGCTTATACGGCTGGATTCGGGATCAAAACATTACGGTATTCGAATCGACGCCTGCGCTCATCCTGCCGTTCATGCAGCATATTTATGAAGAAGGGCTGGACGTTAGCTCCATGCAGTTGCTGATTACCAGCTCGGATGCTTGCAGTGTCACCGATTACCGATTGCTGCAGGAAAGATTCGGCGGACAATTTCGAATCATCAACAGCTATGGCGTTACCGAAGCGGCCATTGACAGCAGCTTTTACGATGAGCCGCTGGACAAGCTGCCGCCGTCGGGTCATGTGCCGATCGGCAAAGCTTGGCTGAACGCCCGGTTTTACATTGTCGATGCCGCGTTAAAGCCGGTTCCTGTAGGGGTTCCGGGCGAGCTTGTCATCGGCGGCGCCGGGGTGGCGCGCGGGTACTGGAACCGTCCGGACCTAACCGCCGAGAAGTTTGCGGACAGCCCGTTTGTGCCGGGCGAACGTCTGTACCGGACAGGCGATTTGGCCCGCTGGCTGGAAGACGGCAACGTCGACTTCATCGGCCGGATCGACTATCAGGTGAAAATTCGCGGGTTCCGGATCGAACTTGGCGAAATTGAAACGGCCCTGCTGCGTTTTCCGGGCGTCAAGCAGGCTGTGGTGACCGACCGTACGGACGAGCAGGGGCAAAAGTATTTGTGCGGCTACGTGGCGGGGGATGCTTCCTTGCAGCTGAGCGATCTGCTGTCCCAATTGAAGCAAGAGCTGCCGGCGCATATGGTCCCGGCCCGGCTGGTGTCTCTTGATAAGCTTCCGCTCACACCGAACGGCAAAATTGACCGTAAAGCGCTGCCTGAACCGACCGGAGAGATAGAAGCAGGCCGTGAGCATGTGGCTCCTCGCACAACGCTGGAAACAAGACTTGCTCTCATTTGGCAGCAGGTGCTGGGGATTGCGCGAGTTGGAGTCCAAGACGATTTCTTTGACTTGGGTGGTCATTCCTTGCGGGCTTCCGCGCTTGTTTCCAAGATTAGGAAAGAACTGCAAGTCGAGGTTCCGCTGCGGGACGTTTTCCGCTACATCACGATTGAACAGCTGGCCCAAAGAATTGGCGGTTTAAGGCAGCAGGAGGCGTATGAGATTACAAAGGCGGCTGAGGCCGAGTACTATCCGGTTTCATCCGAGCAAAAGCGTCTGTACGTCCTGCGCCAGCTTGACGGGGCCGAGCGCAGCTACAATATGTCGGCGGCGCTTCTTCTCGAAGGCAAGCTGGACCGCATGCGCGCCGAGCACGCGTTCCGGGCGCTGATTCAGCGCCATGAGACGCTGCGTACCGGGATCGAGCAGGTTCAAGGCGAGCTTGTGCAGCGCATCTATGACGAGGTGGAGTTTGCTGTTGATTATTTCCATGCAAGCGAGCGGGAAGCGGAACAAGTGGTGGAAGCTTACTATCGCCCGTTTGATCTGACCAAGCCGCCGCTTCTCCGCATCGGCCTGATCGAAGTCGCCGAGGATCGCCACATTCTGCTGTTCGATATGCACCATATCGTCTCGGACGGCATTTCGACAGCGCTGCTCTTCGACGAGTTCAGCCGCCTGTATCGGGGCGAGGAGCTGGCTCCACTGGGCATTCAATACAAAGATTATGCCGTTTGGCAGCATTCCGAAGCCTACGGGCAGATGCTCCAGCCGCAGAAGGAGTACTGGCTGGAACAGCTGTCGGGCGAGCTGCCGGTCTTGGAGCTGCCGACGGACTTCCCGCGGCCTGCGGTGCAAAGTTTTGACGGACGGACCGTGAAGTTTTATATCGGGAAAGAGAGGACGGAGAAGCTGAAAGAGCTGGCGGCACGGACGGGGACGACCCTGTACATGGTGCTGCTGTCGGCTTACTCCATCCTTATGCATAAATATTCGGGTCAGGAAGATTTGATCGTGGGAACGCCGATTGCCGGAAGAACGCAGGATGAAGTGCAGCCGATCGTAGGGATGTTTATCAACACGCTGGCCATTCGCAGCCGTCCAGAGCGTTCCAAACCTTACCTTTCGTACCTGGAAGAAATCAAGGACATCACGCTCGGGGCTTTCGAACACCAAAATTATTTGTTCGAAGACTTGGTGGAAAGTCTTCACATTCCGCGCGCGACCGGCCGGAATCCGCTCTTTGATACGTTCTTCTCCCTGCAAAATACGGAGAACGAGCAAATTGTCATCGAGGGGCTGGAGCAATCGTTTTATCCGCTGGAGAACCGAACATCCAAGTTCGAGCTGCTCATGGATATTTCGGAATTGGACGGTCAGCTTGAATGTCGGTTGGAGTACGCTACGGCTTTGTATAAACAGGAGACTGCGGAGCGGTTCGCCAGACATTATGACAAACTGCTCGAAACCATCGCAGCAGCGCCGGACGGGGATATTGCCTCGCTGGAAATGCTCACGGAGGAGGAAATCCGCTTGCTGGTGCGCGGTTTCAACGATTCGGAGGCGGACTACCCGCGGCAGCAGACGATTCACGGCTTGTTCGAAGAGCAGGCGGAGCTTTACCCGGACAACGTGGCCGCCGTCATGAACGAGCGGCAGCTGACCTACCGCGAGCTGAACGAGCGATCCAACCGCCTTGCGCGGAAGCTGCGGGAGACGGGAGTAGAAGCGGACCAGCTGGTAGCGATTCTGGCCGAACGCTCGCTCGATATGGTCGTCGGCATTCTGGCGATTCTCAAAGCGGGCGGAGCCTACGTGCCTGTCGATCCCGACTACCCGGAGGAGCGCATCCGCTTCATGATTGAGGATTCGGGCGCGCCGTTATTGCTGATTCAAAAGCATCTGCACGAGAAGACCGACTTCGCAGGAACGCGCCTCGAATTGGACGATTTCGTTTGGGGCGACAGAGGGGCGGACTCCGAAGGTGCGCTGGACGCTTCGAACCTGGAGCCGATTTCCGGGCCGGGCAACCTGGCTTATGTCATCTACACGTCGGGAACGACCGGCAGACCGAAAGGAACGCTGATCGAGCATAAGAACGTCGTGCGCCTTTTGTTCAACGACAAGAACCTGTTCGACTTCGGGCCGTCCGACACGTGGACGCTGTTCCACTCGTTCTGCTTCGATTTCTCCGTCTGGGAAATGTACGGAGCGCTGCTGTACGGAGGCAAGCTGGTCATCGTACCGCCGCTCACGGCGAAAAATCCGGCCGATTTCCTGGCGCTGCTGGGCCGCGAACAGGTCACGATTTTGAATCAGACGCCAACGTACTTCTACCAGCTGCTGCGTAAGGTCTTGGCGGACCATCCGTACGATCTGCGGATTCGCAACGTCATCTTCGGGGGCGAAGCGCTGAGTCCGCTGCTGCTCAAGGGCTTCAAGACGAAGTACCCGGAGACGAAGCTGATCAATATGTACGGCATTACCGAGACGACGGTTCACGTGACGTATAAGGAAATTACGTGGGTCGAAATGGAGGCGGCGAAGAGCAATATCGGCAAGCCGATCCCGACGCTGAGGGTGTACATCCTGGATGAAAACCGCCGCCCAGTGCCGATCGGCGTAGCGGGCGAAATGTACGTGGCCGGGGAAGGCCTTGCGAGAGGATACCTGAACCGTCCGGATCTGACGGCGGAGAAGTTCGTCGATTCCCCGTTTGCGGAGGGGGAGAAGCTGTACCGCTCGGGCGACTTGGCGGCTTGGCTGCCGGACGGCAACATCGAATACCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCGGCGGACAATTTCGAATC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GACAATGTAAAACCGGGCGT </t>
+  </si>
+  <si>
+    <t>ATGGGAGCAGCGAAACAGAGTTTGTTCAGCAATAAAAATGTCGTGTATTTATTATCCGCACAGCTATTTTCCGCTTTGGGAGACGGGATATCCCTGCTCGCTATACTGGCCTTGTTCGGCTTTCAAATGGAAGCCTCCCCGATGGAAATGGCATATGTCACGTTGTCATTAGGGCTTCCATTTGTTCTCTTCGGTCCCCTCACGGGCGTGTTGGCAGATAAATTCGACCGCAAAAAAATCATGATATTTTCGGATATTGCTCGCTGCGTCATCATGCTCGCGATTGCCTTCACGGATCAAATCTGGCTGCTCTACAGCTTGTTCTTCCTGAAAGGAACCTTCGAATCGATGTTTACTCCGGCCAAGAACGGAAAGGTGAAGGAATATGTCCCGAACGAGCAGATGGATCAGGTGGTCGGCATCACGACGATTATCGACTATGGATCCAAAATTGTCGGGCCTGCGGTCGGAGGAGTGCTGGTGGCGGTGACGGGCGTGAAGCTTGCCTTTTATATTGACGCCGCGTCTTTCCTCATTTCGGCCTTGCTGCTGCTGGGATTATCAAAGCGGTCGATCCCGGAGGATCAGGCACAGGACGGGAAGGGCGAGGAATCGTTCCTCTCCTTGTTCAAAAACGGATTAACGTTCATACGGAACACGCCGGCTCTGTTGTATAGCTCCATTGCATTCAGCGTCGCCATGCTTGTGCTGACCTTGACGGATACCCAACTCGTGGTGCTTATGCGCGAAATGTCCGCCGTTCCGCCGTCCTTGTTCGGCATCGTCATGGGAGCGATCGGCCTCGGAACACTGGCGGTTGCCGCTTACTTGTCCAAAGCGAAAATTAACGGCGCAATCGCCTATATGTCCCTGGGGTGCCTCGGGGCAGGCGTCGCTTTTGTATTGATTACCTTGTTTACGCAATGGGAATTGTCAGGGAAGTGGATATGGTATCCTGCGTTAGGACTGTTTGGCGGTTGTTTTGCGGCACTCGTATTCGTTCCTTTCCAGTCGATGGCTCAGAAGCTTACGCCGGAATCTTATACGAGCCGCGTGTTCGGAGTTATCGGCAGCCTCAGCACATTTGCCACAATCGTCGGCCCTTTGATGGGCGGGGTGTTGATCGACTTATACGGCGTGTTCCCCATTTTCTTCGTCGTTAGCGGCCTGCTCGTATTGACGAGCGCGGCTCTTGTGGCGCTGTACCTGACAGACAGCAAGACGAAGCACGCGGCGGTCGACGGTTACGAAGGAGGATGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGCTATACTGGCCTTGTTCG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTTATCTGCCAACACGCCC </t>
+  </si>
+  <si>
+    <t>ATGCAAGAACAGGCAAGTGAAAAGAAAGGATTGCGATTCCAGGACATTCTCATTACCGTCATGATCGGGGTCGTTTTCGGCGTTATCTTCAAGCTGTGGGATAGCGTGTACAGTATCGTGAAGCCGCTGTTCCCGCAGGCGGGGCAATTGACTTACGGCATGTGGTTCATGGCCGGGCCGTTCGCCTACTTGCTCATCCGGAAGCCGGGCGTCGCGCTCATTGCCAGTCTGGCCGCAGCCAATCTGTCGGCCCTGCTCGGGTCGGGATGGGGGCTGGAGACGATCATGTACGGATTCGTCCAAGGCTTGGCGGCCGAGCTCGTCTTCGCCTTGGCGCGTTATCGCCGGGGAGGATTAGCGATTGCCGGAGCGGCCGGAATCATGTCGGCTGCCGGCTCGTTCCTCCTCGATCTCGGATACGGCTATGCCAATTACGAGACATGGGTGCTTGTGCTGAAATACGGACTGCGCGTCATCAGCGCCTTCACGTTCGCCGGCATCTTCGCTTACTTCCTGATGCGCGCGCTGGAGGCGACCGGGGTGACCAAGTCGATCCGGCCGGTCGCGAAGGAAGAATACGCGGCTCTGGACCGGTAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGTGGGATAGCGTGTACAGT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGAACCACATGCCGTAAGTC </t>
+  </si>
+  <si>
+    <t>ATGGGTGCAGTAGCAGGCATTTATCACCTTCAACACGATAAGTTGGAACCCGGACTTGGCAGACAAATGATCGATGCCTTGCGGCGCTTTCCCGCTGATTATGTAACTAGTTTGAGTAACGGTTCCTTATTTCTGGGCAGCCTCCAGCAGTGCATTACGCCGCAATCCATCAGCGAGGTGCTCCCCTACTATGATCCGGTTACATCGCTCGCCATTACTTCGGATGCGATTATTGATAATCAGGACGAATTAGCAGACCAGCTTCAACTATCCAAGCAGGCTCGTCAGACCATAACGGACAGCCAGCTTATTCTCCAAGCATATATGAAATGGGGCCATGATATGCCCAAACATCTCGTAGGGGATTTCGCTTTTATCATTTGGGATGGAAGGGATCGCACGATGTTTGGCGCAAGGGATTTTTCCGGAACACGGACCCTTTACTTTCATCAATCCCCGGAACTGTTCTCATTCTGTACCATCATGGAGCCTCTGCTTAAGCTGCCGCACGTTACAAGAGACTTGAACGAACACTGGATTTCCCAATTCCTTGCTATCCCGATCACGACAGACGCCGTAGATTCATTTTCTACCGTTTATCAATCCATTAAGCAGGTCCCCCCTTCGCATTCCATTTTCGTTGCCAATGGGAAAGTAATCTTTCAACAATATTGCCGTCTGCAGCATACTGACAAGCTTGTGCTTACGAGCAACGAGGAATATGAGGAAGCGTTCCGTGATGTTTTTCAGACTGCCGTTCAAGCTCGGTTAAGAACGTTCCGCCAGGTCGGAGCACATCTAAGCGGCGGACTTGATTCCGGTTCGGTTGTGAGCTTTGCCGCACCGATGTTGAAAGCCAACAACAAGCCTCTCTATACCTTCAGCTATTACCCGGTCGAAGGCTTTTCCGATTTCACTTCATGCAACCGTTTTGCGGATGAAAGAGAATACATACGGTCCACGGCGGAGCATGTAGGCAATATCGAGATGAATGTATCCAGTTATCCGTCAAGCAACCCTTATTCCGTCATTGACGAATGGCTTGATACACTGGAGATGCCGTATAAATTTTTCGAGAACTCTTTTTGGCTTAAGGGAATCTATGAACAAGCCGCTGCCCGGGACATCGGGGTTATGCTTACCGGACAGAGGGGGAACTGGACCATTTCCTGGGGGCCCGCCATGGATTACCAGGCCAGTCTGCTAAGGAAGGGGCGTCTCGTGTCGTTCTTCTGGGAGCACAGACGTTATTGCCAATCGCTTGGGGCCAATCCCTGGAAAGTGCTTCAAATCGTCGGCAAGAAGAGCTTTCCTTGGCTCGCCCCGCTGATTGCTCCGGGAGGCGACCCTGCGCTGCCGGTCTTGATTAACCCGGACTTCGCCAGAAAAACCAATGTAACTGACTGCATGAAGGCCTGCGGCATGGACGTCTGGGGATCATCGACTCAGAATGCGTATGACATCCGCAAGGATCACTTTAATCAACTGTATTTTTGGAATATTAACGGAACGATCGGCACGAAGCTTTCCCTTAAGCATAAAATCTGGGACAGGGATCCCACCAATGATTTGCGGGTCGTCCGCTTCTGTCTGTCGGTACCCGATGAACAATTCGTTCAGCAAGGCGTCGACCGTTCGCTGATACGCAGGGCAACCGCCCGCTACCTGCCCGACAAGGTGAGATTAAATCGCAAAAGACGCGGCGTGCAGGGCGCTGACGGCGTGTTCAGGCTCATGCCTGACTGGAGTGAATTCATCCAGGATCTTGAACAGATGATTGGCGATCCGCAAGCTTCTTATTATCTGAATGCCCCCCTGCTTCAGGAGCTGCTGGACGATATCCGGCATCGCCCGCGGCCGGAGCTTGCGTTCGATCTGAAGTTCCGCGTGCTGATGCGCGGGTTCATCTTTCATAAATTCCTGTCAAGAATCTCAGGAAAGGAGGTGTAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTAAGCGGCGGACTTGATTC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCTTCGACCGGGTAATAGC </t>
+  </si>
+  <si>
+    <t>ATGCCAACAATTAACCAATTGGTACGTAAAGGCCGCAAAGACAAAGTAACAAAATCCAAGTCCCCAGCTTTGCAAAGAGGATACAACGCTCTGAAGCGTGAAGAAACGGATTTGAGCGCGCCTCAAAAACGCGGTGTCTGCACTCGTGTAGGTACGATGACACCGAAGAAACCGAACTCTGCACTTCGTAAGTATGCCCGTGTTCGCTTGACGAACCGTGTTGAGGTTACTGCTTACATCGGAGGTATCGGCCACAACCTGCAGGAGCACAGCGTTGTACTCGTGCGCGGGGGCCGGGTTAAGGACCTTCCAGGGGTTCGTTACCACATCGTTCGCGGTGCATTGGATACTGCTGGGGTGAACAACCGCATGCAAGCTCGTTCCAAGTACGGTACGAAGCGTCCGAAAGCGAAGAAATCCTAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGATGACACCGAAGAAACCG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAGCAGTAACCTCAACACGG </t>
+  </si>
+  <si>
+    <t>TGGCAGGACATCTTGTTCAGTATGGTCGACGCACTCGGCGCAGCTACGCGCGCATCAAAGAGGTACTCGA
+AGTCCCGAACTTGATTGAAATCCAACAGAAATCGTACGAATGGTTTTTGGACGAAGGATTGCGTGAGATG
+TTCCAAGACATTTCGCCGATTCAGGATTTCACGGGTAACTTGGTTCTGGAGTTTATCGATTACAGCTTGG
+GCGAGCCTAAGTATTCGGTCGATGAATCGAAGGAACGCGATGTAACGTATGCAGCACCGCTCCGGGTCAA
+AGTGCGTCTCCTCAATAAAGAGACCGGAGAAGTCAAAGAGCAAGAAGTGTTTATGGGTGATTTCCCGCTC
+ATGACGGAGACAGGCACGTTCATCATCAATGGTGCGGAACGTGTTATTGTCAGCCAGTTGGTTCGCTCCC
+CAAGTGTCTATTTCAGTACGAAAGTCGACAAGAACGGGAAGAAGACATATACGGCAACCGTCATCCCGAA
+CCGTGGAGCATGGCTTGAGCTGGAGACGGACGCCAAGGATATCATTTATGTCCGGATTGACCGTACGCGC
+AAGATTCCGGTCACCGTCCTTCTTCGCGCCTTGGGCTTCGGTACGGATGAGCAGATTCTGGAGCTGCTTG
+GCCAGGACGAATATATCCGGAACACCCTGGATAAAGACAATACCGATTCTACGGAAAAAGCGCTGATTGA
+AATCTATGAGCGCCTGCGTCCAGGTGAACCGCCGACATTGGATAATGCGAGAAGCTTGCTCATCGCACGT
+TTCTTCGATCCTAAACGTTATGATCTGGCCAACGTGGGCCGTTACAAGATTAATAAAAAGCTTCATATCA
+AGAACCGGCTCTTCAACCAGCGCCTCGCCGAGACGCTTATCGATGTGGAGACGGGCGAGATCGTGGCCGA
+AGCCGGACAGATGATCGATCGCCGTCTGCTGGATGAGATTATGCCGCGCCTGGAGAGCGGAGTCGGATTC
+AAGACGTATCACGTCGCAGGCGGAGTAATGGAGTCGGATGATATTCCGATGCAGGTCGTCGACGTATTCT
+CGCCGCATGAGGAAGGCAAAGTCATCAAGGTCATTTCCAACGGCAACATCGACAAATCGGTGAAGAACAT
+TACGCCGGCCGATATCATCTCCTCGATCAACTATTTTATCAACCTGCTGCACGGCATCGGCAGCACGGAT
+GATATCGACCATCTGGGCAACCGCCGTCTCCGTTCGGTCGGCGAATTGCTGCAGAACCAGTTCCGCATCG
+GTCTGTCCCGGATGGAACGCGTCGTGCGTGAACGGATGTCCATTCAGGATGCGAGCGTCATTACGCCGCA
+AGCGCTGATTAACATCCGTCCGGTCATCGCCTCGATCAAGGAGTTCTTCGGCAGCTCGCAGCTGTCCCAG
+TTCATGGACCAGACGAACCCGCTGGCGGAATTGACGCACAAGCGCCGTCTGTCCGCGCTCGGTCCGGGCG
+GTCTGACGCGGGAACGCGCCGGCTTCGAAGTCCGCGACGTTCACCACTCGCACTATGGGCGGATGTGTCC
+GATCGAGACGCCGGAAGGTCCGAACATCGGTCTGATCAACTCCTTGTCCACCTTCGCTCGCGTCAACGAG
+TACGGCTTCATCGAAGCTCCGTATCGTTGGGTCGACCCGAAGAACGGCAAGGTCACGGAACAGATTGATT
+ATATGACGGCGGATGAGGAAGACAACTACGTCATCGCCCAGGCGAACGCGCTGTTGAATGAAGACGGCTC
+GTTCCAGGACGATATGGTTATTGTCCGCTACAACAAGCAGTCCGACAATATTTTGACGATGCCGAGCGAG
+CGCGTTGACTATATGGACGTCTCGCCGAAGCAGGTCGTGTCGGTTGCGACCGCGCTCATTCCGTTCCTGG
+AGAACGACGACTCCAACCGTGCGCTCATGGGTTCCAACATGCAGCGGCAAGCGGTGCCTCTGCTGGTGCC
+GGAAGCGCCGTTCGTCGGAACCGGAATGGAGCACAAGTCCGCGAAGGACTCTGGCGTCTGCATCGTATCC
+AAAGTGGACGGCATCGTGGAGCGCGTTACGGCGAACGAGGTTCAAGTCCGCCGCATTGAAATGATTGACG
+GCAAAGAGGTCAAGGGTGACCTCGTCAAATATAAATTGCAGAAGTTCATGCGTTCCAACCAAGGAACCTG
+CATTAACCAGCGTCCGCTGGCGAAGAAAGGCGATATCGTCAAGAAGGGCGATATTTTGGCGGACGGTCCG
+TCCACGGAAGTGGGCGAACTGGCGCTGGGCCGCAACGTCGTCGTTGCCTTCATGACTTGGGAAGGGTACA
+ACTACGAGGATGCGATTCTGCTGTCCGAGAAATTGGTCAAAGAAGACGTCTACACCTCAATCCATATCGA
+GGAGTACGAGTCGGAAGCCCGCGACACGAAGCTGGGGCCGGAAGAGATTACGCGCGATATCCCGAACGTC
+GGGGAAGAAGCGCTGAAGAATCTTGACGAGCGCGGCATTATCCGTGTCGGCGCCGAGATTAAGGCTGGCG
+ACATCCTCGTCGGCAAAGTAACGCCAAAAGGGGTTACCGAGCTGACGGCGGAAGAGCGTCTCCTGCACGC
+GATCTTCGGCGAAAAAGCGCGCGAGGTGCGCGACACGTCCCTGCGCGTTCCGCACGGAACCGACGGGATT
+GTCGTCGACGTCAAGGTGTTCACGCGGGAGAACGGCGATGAGCTGCCTCCAGGCGTCAACCAACTGGTAC
+GTGCTTATATTGCCCAAAAGCGGAAAATATCCGAAGGGGATAAAATGGCGGGACGCCACGGTAACAAAGG
+GGTCATCGCCCGCATTCTGCCGGAAGAGGATATGCCGTTCCTGCCGGATGGCACGCCGGTTCAAGTCGTA
+TTGAACCCGCTCGGCGTTCCTTCCCGGATGAACATCGGCCAGGTGCTCGAGGTTCACTTGGGCATGGCCG
+CCCGTTACCTCGGCATGCATATGGCTACGCCGGTCTTCGACGGCGCGACCGAGTACGACGTATTCGACAC
+GATGGAAGAAGCCGGCATGCAGCGCAACGGCAAGACCATCCTGTACGATGGCCGCACAGGCGAGCCGTTC
+GAGCGTGAAGTTACGGTCGGCGTCATGTACATGATTAAGCTCGCGCACATGGTTGACGACAAGATTCACG
+CCCGTTCCACAGGTCCATACTCGCTCGTTACGCAGCAGCCGCTCGGCGGTAAAGCCCAGTTCGGCGGCCA
+GCGCTTCGGGGAGATGGAGGTGTGGGCGCTTGAAGCTTACGGCGCCGCCTATACGCTGCAAGAGATCCTT
+ACCGTCAAATCCGACGACGTTGTCGGCCGGGTGAAGACATATGAATCGATTGTCAAGGGCGAGAATGTGC
+CGGAGCCAGGTGTTCCAGAGTCCTTCAAGGTCTTGATCAAAGAGCTGCAAAGCTTAGGTATGGATGTCAA
+GATTTTGACGGAGAACGAGGAAGAAATCGAAATGCGTGAATTCGACGATGACGATGATATTCCGCAAGAC
+AAGCTGAACCTTGGCATGGATGACGAATACGTGGCGGAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGTTCCAAGACATTTCGCCG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGCTGCATACGTTACATCGC </t>
+  </si>
+  <si>
+    <t>ATGTTGGAATTTGAATTCGAGATGGAAGCATTAGCCCAGATTAAGGTAATCGGTGTCGGGGGCGGCGGAA
+GCAATGCAGTCAACCGCATGATCGACAACGGTGTCAAGGGCGTTGAATTTATTACGGTAAATACGGATGC
+GCAGGCGCTCCATTTTGCGAAATCCGAGCACAAGCTGCAGATCGGCGACAAGCTGACGCGCGGCCTCGGG
+GCGGGCGCGAATCCCGAAGTGGGGAAGAAAGCGGCTGAAGAGTCCCGTGAACTGATTATGAACACCCTTA
+AGGGGGCTGACATGGTTTTTGTCACCGCCGGTATGGGGGGAGGAACGGGAACCGGTGCGGCTCCGGTTAT
+CGCCGAGATCGCGAAGGAATGCGGGGCGCTGACGGTAGGGGTCGTTACGAGGCCATTTACGTTCGAAGGC
+CGCAAGCGTCTGACGCAGGCGGAGATGGGAATTGAAGCCTTGAAGGAGAAGGTGGATACGCTCATCGTCA
+TCCCGAACGATCGCCTCTTGGAGATTGTGGACAAGAAGACGCCGATGCTGGAAGCGTTCCGGGCGGCAGA
+CAACGTGCTGCGGCAGGCAGTCCAGGGCATTTCCGACTTGATTGCCGTGCCGGGGCTGATCAACCTTGAC
+TTCGCGGACGTGAAGACGATTATGACCGAGCGGGGTTCGGCCTTGATGGGAATCGGCATCGCCAACGGAG
+AGAACCGGGCGGCGGAGGCCGCGCGCAAGGCGATTATGAGCCCGCTGCTCGAGACGTCGATCGATGGCGC
+ACGGGGCGTCATCATGAACATTACGGGCGGAGCGAATTTGTCGCTCTACGAGGTCAATGAAGCGGCCGAG
+ATTGTGACCGCTGCCTCGGATCCGGAAGTGAATATGATCTTCGGTGCGATTATCGACGAGAACATGAATG
+ATGACATTAAGGTGACCGTCATTGCGACCGGATTCGAGCATAAGCCGGCTCCGATGATTCCAGGGCGCCG
+CCCTGCGAGCAGCGGCAGCGAGACGAGCGGGGAATCCCGCGCGCAATCGCCGCTGCGTCCGTTCGGCAAT
+GCGCCATCGGGCGGAGATCAGCTGGACATTCCAACGTTCCTGCGGAACCGTCCGCGCAACAATAATAACG
+AA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTCCGACTTGATTGCCGTG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCCCGCTCGGTCATAATC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDENDC454_09885 </t>
+  </si>
+  <si>
+    <t>translatuon elongation factor G normalizing gene</t>
+  </si>
+  <si>
+    <t>ATGGCAAGACAGTTCTCCTTGGCAAATACGCGTAATATCGGGATTATGGCTCACATCGATGCCGGTAAAA
+CAACGACAACGGAGCGTATTCTGTTCTACACCGGTCGTACTCATAAGATTGGTGAAACCCATGAAGGTTC
+CGCGACAATGGACTGGATGGCGCAAGAACAAGAGCGCGGTATTACGATTACATCGGCGGCAACGACCGCA
+CAATGGAAAGGTCACCGCGTTAACATTATCGACACTCCGGGCCACGTTGACTTTACGGTAGAGGTTGAGC
+GTTCCCTTCGCGTATTGGACGGAGCCGTAGGCGTTTTCTCTGCAAAAGAAGGCGTTGAGCCACAATCCGA
+GACGGTATGGCGTCAAGCCGACCGTTACGGCGTACCTCGTATTGCTTACGTCAACAAAATGGACATCATT
+GGCGCTGACTTCCTTAATGTCATCGAGTCCATGAAAGACCGTTTGCAAGCGAATGCCGTGGCGCTTCAGT
+TGCCTATCGGCGCAGAGAATGATTTCGTAGGTATCGTCGATTTGATGACGGAAAAAGCGTACATCTTCAA
+AGACGATCTCGGAAAAGAAATCGAAGAGACGGAAATTCCGGCTGAGTTGAAAGACAAAGCGGAAGAACTC
+CGTCTGGAATTGATTGAGAAGATTGCAGAGCTCGACGAAGACTTGACAATGAAATACCTTGAAGGCGAAG
+AGATTACAGTTCCTGAACTGAAAGCCGCTCTCCGCAAAGGGGTATGCAATGTTCAAATCTTCCCGGTTGT
+CTGCGGTTCTTCCTACCGCAACAAAGGCGTTCAGATGATGATCGACGCTGTTGTCGACTACCTCCCGTCT
+CCATTGGATGTGCCTGATATTCAAGGCCATCTCGAAGACGGAACGGAATCGGTTCGTCATTCTTCGGACG
+AAGAGCCGTTCTCGGCACTTGCGTTCAAGATTATGACAGACCCTTACGTTGGTAAGCTGACATTCTTCCG
+CGTATACTCTGGCGTATTGAACTCCGGTTCTTACGTATTGAATGCAACGAAGGGCAAGCGCGAGCGCATC
+GGCCGTATCCTGCAAATGCACGCGAACAGCCGTGAAGAAATTGATATCGTCTACTCCGGCGACATCGCGG
+CTGCCGTTGGCTTGAAAGATACGGGCACAGGCGACACGCTGTGCGACGAGAAACATCCGATTATTCTGGA
+ATCCATGAACTTCCCTGAGCCGGTTATCCATATCGCCGTTGAGCCGAAGACCAAAGCGGACCAAGACAAA
+CTTGGCGTCGCCTTGGCGAAGCTGACGGAAGAGGATCCAACGCTCCGCGCTCACACGGACGAAGAGACAG
+GTCAAACGATCCTGGGCGGTATGGGTGAGCTTCACCTTGACGTCATCATCGACCGTATGCGCCGCGAGTT
+CAAAGTGGAAACGAATATCGGTAATCCGCAAGTTGCTTATCGTGAAACATTCCGTACACCTGCACGGGTT
+GAAGGTAAGTTCGTGCGTCAGTCTGGTGGTCGCGGTCAATACGGTCACGTATGGATCGAGTTCGCACCAC
+AAGAGCCAGGCGCAGGATTTGCATTCGAGAACAAGATCGTCGGTGGGGTTGTACCGCGCGAATACATTGC
+GCCGGTACAAGCGGGAATCGAAGAAGCGATGCAGAACGGTGTCTTGGCCGGTTATCCGCTCGTAGACATC
+AAAGCAACGATCGTGGACGGTTCTTACCACGATGTCGACTCCAGTGAGATGGCGTTTAAGATTGCCGGTT
+CCATGGCGCTTAAAGCAGCGAAGGAGAAGTGTAATCCTGTTCTTCTCGAGCCAATCATGAAGGTCGAAGT
+TACCGTGCCAGAAGAGTACATGGGCGACGTAATGGGTATGCTGAACTCCCGTCGCGGTCGCATCGAAGGT
+ATGGATTCCCGTGCAGGCGCACAGATTATCCGTGCCAAGGTGCCTCTCGCAGAGATGTTCGGATATTCCA
+CAACGCTTCGTTCCGGTACGCAAGGCCGCGGTGTATTCTCGATGGAAATTTCTCACTATGAAGAAGTTCC
+GCGGAATATCTCGGAAGAGATCATTTCGAAGAGCAAAGGCGTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTCCCGTCTCCATTGGATGT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTCCGAAGAATGACGAACCG </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7660,19 +8139,6 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -7681,17 +8147,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
     </font>
     <font>
       <b/>
@@ -7751,8 +8206,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFEE0000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7807,6 +8274,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -7820,7 +8293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7835,10 +8308,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -7869,10 +8342,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7881,10 +8354,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -7971,7 +8444,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7980,9 +8456,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8005,6 +8484,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8327,8 +8810,8 @@
   <sheetPr codeName="Worksheet______1"/>
   <dimension ref="A1:M184"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="B91" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13695,10 +14178,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B76040-7DF9-4C92-B69F-0F3673AD4DDD}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13715,25 +14198,34 @@
     <col min="14" max="14" width="69.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="55" t="s">
         <v>647</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-    </row>
-    <row r="2" spans="1:13" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="O1" t="s">
+        <v>666</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="59" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -13770,9 +14262,18 @@
       <c r="M2">
         <v>1.2903875279999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="O2" s="36" t="s">
+        <v>667</v>
+      </c>
+      <c r="P2" s="60" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="59" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="17" t="s">
@@ -13809,8 +14310,17 @@
       <c r="M3">
         <v>1.406666714</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="O3" t="s">
+        <v>670</v>
+      </c>
+      <c r="P3" s="60" t="s">
+        <v>671</v>
+      </c>
+      <c r="Q3" s="60" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>78</v>
       </c>
@@ -13843,8 +14353,8 @@
         <v>-1.2476898670000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="59" t="s">
         <v>81</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -13875,9 +14385,18 @@
       <c r="K5">
         <v>-1.253088945</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="255" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="O5" t="s">
+        <v>673</v>
+      </c>
+      <c r="P5" s="60" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q5" s="60" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="255" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="59" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="17" t="s">
@@ -13908,8 +14427,17 @@
       <c r="K6">
         <v>-1.400561588</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="O6" t="s">
+        <v>676</v>
+      </c>
+      <c r="P6" s="60" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q6" s="60" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
@@ -13950,8 +14478,8 @@
         <v>1.3721632560000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:17" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="59" t="s">
         <v>89</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -13988,8 +14516,17 @@
       <c r="M8">
         <v>1.681854328</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="O8" s="60" t="s">
+        <v>679</v>
+      </c>
+      <c r="P8" s="60" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q8" s="60" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>91</v>
       </c>
@@ -14028,7 +14565,7 @@
         <v>1.576110364</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="189" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="189" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>94</v>
       </c>
@@ -14067,7 +14604,7 @@
         <v>1.647776755</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>99</v>
       </c>
@@ -14106,8 +14643,8 @@
         <v>1.773298131</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:17" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="59" t="s">
         <v>83</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -14144,8 +14681,17 @@
       <c r="M12">
         <v>1.3728637880000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O12" t="s">
+        <v>682</v>
+      </c>
+      <c r="P12" s="60" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q12" s="60" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>223</v>
       </c>
@@ -14178,8 +14724,8 @@
         <v>-1.152533708</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:17" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="59" t="s">
         <v>225</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -14208,8 +14754,17 @@
       <c r="K14">
         <v>-1.0904098600000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="O14" t="s">
+        <v>685</v>
+      </c>
+      <c r="P14" s="60" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q14" s="60" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>228</v>
       </c>
@@ -14240,7 +14795,7 @@
         <v>-1.182744244</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>233</v>
       </c>
@@ -14271,7 +14826,7 @@
         <v>-1.3354354020000001</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="188.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="188.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>236</v>
       </c>
@@ -14302,8 +14857,8 @@
         <v>-1.864870233</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="59" t="s">
         <v>272</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -14338,8 +14893,17 @@
       <c r="M18">
         <v>2.517862413</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="O18" t="s">
+        <v>688</v>
+      </c>
+      <c r="P18" s="60" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q18" s="60" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>275</v>
       </c>
@@ -14376,7 +14940,7 @@
         <v>2.3809979440000002</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>278</v>
       </c>
@@ -14413,8 +14977,8 @@
         <v>1.870760204</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="59" t="s">
         <v>289</v>
       </c>
       <c r="B21" s="17" t="s">
@@ -14449,8 +15013,17 @@
       <c r="M21">
         <v>1.9866742630000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O21" t="s">
+        <v>691</v>
+      </c>
+      <c r="P21" s="60" t="s">
+        <v>692</v>
+      </c>
+      <c r="Q21" s="60" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>297</v>
       </c>
@@ -14489,7 +15062,7 @@
         <v>2.7066687109999998</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>302</v>
       </c>
@@ -14526,24 +15099,24 @@
         <v>3.4168891330000002</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A24" s="54" t="s">
+    <row r="24" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A24" s="55" t="s">
         <v>648</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-    </row>
-    <row r="25" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+    </row>
+    <row r="25" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>49</v>
       </c>
@@ -14580,7 +15153,7 @@
         <v>-1.795242038</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>54</v>
       </c>
@@ -14617,24 +15190,24 @@
         <v>-1.4089677789999999</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A27" s="54" t="s">
+    <row r="27" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A27" s="55" t="s">
         <v>654</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-    </row>
-    <row r="28" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+    </row>
+    <row r="28" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>8</v>
       </c>
@@ -14665,7 +15238,7 @@
       <c r="L28" s="52"/>
       <c r="M28" s="52"/>
     </row>
-    <row r="29" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>44</v>
       </c>
@@ -14696,7 +15269,7 @@
       <c r="L29" s="52"/>
       <c r="M29" s="52"/>
     </row>
-    <row r="30" spans="1:13" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>48</v>
       </c>
@@ -14727,24 +15300,24 @@
         <v>2.9946031199999998</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="54" t="s">
+    <row r="31" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A31" s="55" t="s">
         <v>649</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>597</v>
       </c>
@@ -14777,7 +15350,7 @@
         <v>-2.485530646</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>600</v>
       </c>
@@ -14804,17 +15377,17 @@
         <v>1.4580365559999999</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="57" t="s">
+    <row r="34" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="54" t="s">
         <v>650</v>
       </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>624</v>
       </c>
@@ -14848,11 +15421,11 @@
       <c r="M35">
         <v>-1.3093151380000001</v>
       </c>
-      <c r="N35" s="55" t="s">
+      <c r="N35" s="56" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>626</v>
       </c>
@@ -14886,9 +15459,9 @@
       <c r="M36">
         <v>-1.3911298439999999</v>
       </c>
-      <c r="N36" s="56"/>
-    </row>
-    <row r="37" spans="1:14" s="21" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="N36" s="57"/>
+    </row>
+    <row r="37" spans="1:17" s="21" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
         <v>628</v>
       </c>
@@ -14919,9 +15492,9 @@
       <c r="M37" s="21">
         <v>-1.5509100520000001</v>
       </c>
-      <c r="N37" s="56"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N37" s="57"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>630</v>
       </c>
@@ -14955,11 +15528,11 @@
       <c r="M38">
         <v>3.0876988559999998</v>
       </c>
-      <c r="N38" s="55" t="s">
+      <c r="N38" s="56" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>632</v>
       </c>
@@ -14987,9 +15560,9 @@
       <c r="K39">
         <v>-2.7283659029999998</v>
       </c>
-      <c r="N39" s="55"/>
-    </row>
-    <row r="40" spans="1:14" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N39" s="56"/>
+    </row>
+    <row r="40" spans="1:17" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>634</v>
       </c>
@@ -15023,9 +15596,9 @@
       <c r="M40">
         <v>2.0553697519999998</v>
       </c>
-      <c r="N40" s="55"/>
-    </row>
-    <row r="41" spans="1:14" ht="178.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N40" s="56"/>
+    </row>
+    <row r="41" spans="1:17" ht="178.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>8</v>
       </c>
@@ -15054,17 +15627,17 @@
         <v>1.1917157860000001</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="57" t="s">
+    <row r="42" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="54" t="s">
         <v>653</v>
       </c>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>518</v>
       </c>
@@ -15093,7 +15666,7 @@
         <v>1.2785863639999999</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>521</v>
       </c>
@@ -15122,16 +15695,102 @@
         <v>1.6117489030000001</v>
       </c>
     </row>
+    <row r="45" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A45" s="55" t="s">
+        <v>657</v>
+      </c>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="55"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>658</v>
+      </c>
+      <c r="C46" t="s">
+        <v>659</v>
+      </c>
+      <c r="O46" t="s">
+        <v>694</v>
+      </c>
+      <c r="P46" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q46" s="60" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>660</v>
+      </c>
+      <c r="C47" t="s">
+        <v>661</v>
+      </c>
+      <c r="O47" s="61" t="s">
+        <v>697</v>
+      </c>
+      <c r="P47" s="60" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q47" s="60" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>662</v>
+      </c>
+      <c r="C48" t="s">
+        <v>663</v>
+      </c>
+      <c r="O48" s="61" t="s">
+        <v>700</v>
+      </c>
+      <c r="P48" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>703</v>
+      </c>
+      <c r="C49" t="s">
+        <v>704</v>
+      </c>
+      <c r="O49" s="61" t="s">
+        <v>705</v>
+      </c>
+      <c r="P49" s="60" t="s">
+        <v>706</v>
+      </c>
+      <c r="Q49" s="60" t="s">
+        <v>707</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="N38:N40"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A45:M45"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A24:M24"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A27:M27"/>
     <mergeCell ref="A31:M31"/>
-    <mergeCell ref="N35:N37"/>
-    <mergeCell ref="N38:N40"/>
-    <mergeCell ref="A34:F34"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
